--- a/autoChectWork/考勤情况总表.xlsx
+++ b/autoChectWork/考勤情况总表.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\autoChectWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83825BCE-3CA4-4BEA-BB24-05DDA440870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A935912-53DA-41EC-9ACF-8F83E347F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="2040" windowWidth="16395" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="1395" windowWidth="16395" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="381">
   <si>
     <t>2022年3月份考勤表</t>
   </si>
@@ -1042,10 +1052,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>102.0天，事假30.0天，公假45.0天，病假8.0天，产假11.0天，旷岗8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假10.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1327,6 +1333,17 @@
   </si>
   <si>
     <t>产假6.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王黎洁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，病假1.0天，婚假1.0天，</t>
+  </si>
+  <si>
+    <t>105.0天，事假31.0天，公假45.0天，病假9.0天，婚假1.0天，产假11.0天，旷岗8.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1673,6 +1690,162 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1682,6 +1855,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -1710,33 +1892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,144 +1926,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2185,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C207" sqref="C207"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,30 +2217,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -2235,14 +2252,14 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="75" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2251,202 +2268,202 @@
       <c r="C5" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2458,45 +2475,45 @@
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+        <v>335</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+        <v>336</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -2508,14 +2525,14 @@
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2524,29 +2541,29 @@
       <c r="C28" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+        <v>337</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -2558,53 +2575,53 @@
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="64"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+        <v>310</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -2616,55 +2633,55 @@
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="64"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+        <v>338</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -2674,69 +2691,69 @@
         <v>2</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="75" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+        <v>339</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="64"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
+        <v>340</v>
+      </c>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="64"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+        <v>341</v>
+      </c>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="64"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="104" t="s">
-        <v>343</v>
-      </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
+      <c r="C45" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="83"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -2748,35 +2765,35 @@
       <c r="C47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+        <v>312</v>
+      </c>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
@@ -2784,19 +2801,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
+        <v>343</v>
+      </c>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="77"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
@@ -2808,73 +2825,73 @@
       <c r="C52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="77" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="65"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="12"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="98"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="100"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
     </row>
     <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
@@ -2886,14 +2903,14 @@
       <c r="C59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
     </row>
     <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="77" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -2902,65 +2919,65 @@
       <c r="C60" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+        <v>344</v>
+      </c>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
     </row>
     <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
+        <v>345</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
     </row>
     <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
+      <c r="C64" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
     </row>
     <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
@@ -2972,65 +2989,65 @@
       <c r="C66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="77" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
+        <v>347</v>
+      </c>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="66"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="97" t="s">
+      <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
@@ -3042,213 +3059,213 @@
       <c r="C72" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="41"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="77" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="D73" s="53"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="55"/>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="66"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="55"/>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="66"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="55"/>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="66"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="44"/>
+        <v>349</v>
+      </c>
+      <c r="D76" s="53"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="55"/>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="66"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="44"/>
+        <v>350</v>
+      </c>
+      <c r="D77" s="53"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="55"/>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="66"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="44"/>
+        <v>351</v>
+      </c>
+      <c r="D78" s="53"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="55"/>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="D79" s="53"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="55"/>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="66"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="44"/>
+        <v>352</v>
+      </c>
+      <c r="D80" s="53"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="55"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="66"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="44"/>
+        <v>348</v>
+      </c>
+      <c r="D81" s="53"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="66"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="44"/>
+        <v>345</v>
+      </c>
+      <c r="D82" s="53"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="55"/>
     </row>
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="66"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="44"/>
+        <v>353</v>
+      </c>
+      <c r="D83" s="53"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="66"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="44"/>
+        <v>354</v>
+      </c>
+      <c r="D84" s="53"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="66"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="44"/>
+        <v>355</v>
+      </c>
+      <c r="D85" s="53"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="66"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="44"/>
+        <v>354</v>
+      </c>
+      <c r="D86" s="53"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="55"/>
     </row>
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="47"/>
+        <v>348</v>
+      </c>
+      <c r="D87" s="57"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="59"/>
     </row>
     <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="66"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="101" t="s">
+      <c r="C88" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="102"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="103"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="81"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="83"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
@@ -3260,205 +3277,205 @@
       <c r="C90" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
+      <c r="E90" s="86"/>
+      <c r="F90" s="86"/>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="77" t="s">
         <v>77</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C91" s="9"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="66"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C93" s="9"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="66"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
+        <v>356</v>
+      </c>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
+        <v>335</v>
+      </c>
+      <c r="D95" s="86"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="66"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
+        <v>356</v>
+      </c>
+      <c r="D96" s="86"/>
+      <c r="E96" s="86"/>
+      <c r="F96" s="86"/>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="66"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="66"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
     </row>
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="66"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
+        <v>339</v>
+      </c>
+      <c r="D99" s="86"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="86"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="66"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="86"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="66"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="66"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="86"/>
     </row>
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="66"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="86"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="66"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
     </row>
     <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="66"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
+        <v>357</v>
+      </c>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
+      <c r="F105" s="86"/>
     </row>
     <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="66"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="97" t="s">
+      <c r="C106" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="81"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="83"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
@@ -3470,117 +3487,117 @@
       <c r="C108" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="39" t="s">
+      <c r="D108" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="40"/>
-      <c r="F108" s="41"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="62"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="78" t="s">
         <v>94</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="44"/>
+        <v>358</v>
+      </c>
+      <c r="D109" s="53"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="55"/>
     </row>
     <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="67"/>
+      <c r="A110" s="78"/>
       <c r="B110" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D110" s="42"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="44"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="55"/>
     </row>
     <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="67"/>
+      <c r="A111" s="78"/>
       <c r="B111" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" s="42"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="44"/>
+        <v>330</v>
+      </c>
+      <c r="D111" s="53"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="55"/>
     </row>
     <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="67"/>
+      <c r="A112" s="78"/>
       <c r="B112" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D112" s="42"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="44"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="55"/>
     </row>
     <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="67"/>
+      <c r="A113" s="78"/>
       <c r="B113" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="44"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="55"/>
     </row>
     <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="67"/>
+      <c r="A114" s="78"/>
       <c r="B114" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="D114" s="42"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="44"/>
+        <v>359</v>
+      </c>
+      <c r="D114" s="53"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="55"/>
     </row>
     <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="67"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D115" s="45"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="47"/>
+        <v>348</v>
+      </c>
+      <c r="D115" s="57"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="59"/>
     </row>
     <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="67"/>
+      <c r="A116" s="78"/>
       <c r="B116" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="D116" s="79"/>
-      <c r="E116" s="79"/>
-      <c r="F116" s="80"/>
+      <c r="C116" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="81"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
-      <c r="F117" s="83"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
@@ -3592,67 +3609,67 @@
       <c r="C118" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
+      <c r="E118" s="86"/>
+      <c r="F118" s="86"/>
     </row>
     <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="79" t="s">
         <v>102</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
+        <v>361</v>
+      </c>
+      <c r="D119" s="86"/>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
     </row>
     <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="28"/>
+      <c r="A120" s="80"/>
       <c r="B120" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C120" s="15"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
     </row>
     <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="28"/>
+      <c r="A121" s="80"/>
       <c r="B121" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
+        <v>314</v>
+      </c>
+      <c r="D121" s="86"/>
+      <c r="E121" s="86"/>
+      <c r="F121" s="86"/>
     </row>
     <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="29"/>
+      <c r="A122" s="81"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
-      <c r="F122" s="96"/>
+      <c r="C122" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="81"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="82"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="82"/>
-      <c r="F123" s="83"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="31"/>
     </row>
     <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
@@ -3664,199 +3681,199 @@
       <c r="C124" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="39" t="s">
+      <c r="D124" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E124" s="40"/>
-      <c r="F124" s="41"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="62"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="68" t="s">
+      <c r="A125" s="67" t="s">
         <v>107</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D125" s="42"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="44"/>
+        <v>334</v>
+      </c>
+      <c r="D125" s="53"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="55"/>
     </row>
     <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="69"/>
+      <c r="A126" s="68"/>
       <c r="B126" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D126" s="42"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="44"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="55"/>
     </row>
     <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="69"/>
+      <c r="A127" s="68"/>
       <c r="B127" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D127" s="42"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="44"/>
+        <v>363</v>
+      </c>
+      <c r="D127" s="53"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="55"/>
     </row>
     <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="69"/>
+      <c r="A128" s="68"/>
       <c r="B128" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D128" s="42"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="44"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="55"/>
     </row>
     <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="69"/>
+      <c r="A129" s="68"/>
       <c r="B129" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D129" s="42"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="44"/>
+        <v>364</v>
+      </c>
+      <c r="D129" s="53"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="55"/>
     </row>
     <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="69"/>
+      <c r="A130" s="68"/>
       <c r="B130" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D130" s="42"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="44"/>
+        <v>365</v>
+      </c>
+      <c r="D130" s="53"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="55"/>
     </row>
     <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="69"/>
+      <c r="A131" s="68"/>
       <c r="B131" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D131" s="42"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="44"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="55"/>
     </row>
     <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="69"/>
+      <c r="A132" s="68"/>
       <c r="B132" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D132" s="42"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="44"/>
+        <v>366</v>
+      </c>
+      <c r="D132" s="53"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="55"/>
     </row>
     <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="69"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D133" s="42"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="44"/>
+        <v>367</v>
+      </c>
+      <c r="D133" s="53"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="55"/>
     </row>
     <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="69"/>
+      <c r="A134" s="68"/>
       <c r="B134" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D134" s="42"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="44"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="55"/>
     </row>
     <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="69"/>
+      <c r="A135" s="68"/>
       <c r="B135" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="44"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="55"/>
     </row>
     <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="69"/>
+      <c r="A136" s="68"/>
       <c r="B136" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D136" s="42"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="44"/>
+        <v>368</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="55"/>
     </row>
     <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="69"/>
+      <c r="A137" s="68"/>
       <c r="B137" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D137" s="42"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="44"/>
+        <v>369</v>
+      </c>
+      <c r="D137" s="53"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="55"/>
     </row>
     <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="69"/>
+      <c r="A138" s="68"/>
       <c r="B138" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D138" s="45"/>
-      <c r="E138" s="46"/>
-      <c r="F138" s="47"/>
+        <v>317</v>
+      </c>
+      <c r="D138" s="57"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="59"/>
     </row>
     <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="70"/>
+      <c r="A139" s="69"/>
       <c r="B139" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C139" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="D139" s="93"/>
-      <c r="E139" s="93"/>
-      <c r="F139" s="94"/>
+      <c r="C139" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="49"/>
     </row>
     <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="81"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="82"/>
-      <c r="F140" s="83"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="31"/>
     </row>
     <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
@@ -3868,14 +3885,14 @@
       <c r="C141" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
+      <c r="E141" s="86"/>
+      <c r="F141" s="86"/>
     </row>
     <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="68" t="s">
+      <c r="A142" s="67" t="s">
         <v>123</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -3884,85 +3901,85 @@
       <c r="C142" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
+      <c r="D142" s="86"/>
+      <c r="E142" s="86"/>
+      <c r="F142" s="86"/>
     </row>
     <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="69"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
+      <c r="D143" s="86"/>
+      <c r="E143" s="86"/>
+      <c r="F143" s="86"/>
     </row>
     <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="69"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
+      <c r="D144" s="86"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
     </row>
     <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="69"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
+      <c r="D145" s="86"/>
+      <c r="E145" s="86"/>
+      <c r="F145" s="86"/>
     </row>
     <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="69"/>
+      <c r="A146" s="68"/>
       <c r="B146" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
+      <c r="D146" s="86"/>
+      <c r="E146" s="86"/>
+      <c r="F146" s="86"/>
     </row>
     <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="69"/>
+      <c r="A147" s="68"/>
       <c r="B147" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
+      <c r="D147" s="86"/>
+      <c r="E147" s="86"/>
+      <c r="F147" s="86"/>
     </row>
     <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="70"/>
+      <c r="A148" s="69"/>
       <c r="B148" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="97" t="s">
-        <v>372</v>
-      </c>
-      <c r="D148" s="97"/>
-      <c r="E148" s="97"/>
-      <c r="F148" s="97"/>
+      <c r="C148" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
     </row>
     <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="81"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="82"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="82"/>
-      <c r="F149" s="83"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="31"/>
     </row>
     <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
@@ -3974,14 +3991,14 @@
       <c r="C150" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D150" s="39" t="s">
+      <c r="D150" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="E150" s="40"/>
-      <c r="F150" s="41"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="62"/>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="79" t="s">
         <v>131</v>
       </c>
       <c r="B151" s="9" t="s">
@@ -3990,2039 +4007,1970 @@
       <c r="C151" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="42"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="44"/>
+      <c r="D151" s="53"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="55"/>
     </row>
     <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="28"/>
+      <c r="A152" s="80"/>
       <c r="B152" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="44"/>
+        <v>312</v>
+      </c>
+      <c r="D152" s="53"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="55"/>
     </row>
     <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="28"/>
+      <c r="A153" s="80"/>
       <c r="B153" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="9"/>
-      <c r="D153" s="42"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="44"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="55"/>
     </row>
     <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="28"/>
+      <c r="A154" s="80"/>
       <c r="B154" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C154" s="9"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="44"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="55"/>
     </row>
     <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="28"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="44"/>
+      <c r="D155" s="53"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="55"/>
     </row>
     <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="28"/>
+      <c r="A156" s="80"/>
       <c r="B156" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D156" s="42"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="44"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="55"/>
     </row>
     <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="28"/>
+      <c r="A157" s="80"/>
       <c r="B157" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C157" s="9"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="44"/>
+      <c r="D157" s="53"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="55"/>
     </row>
     <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="28"/>
+      <c r="A158" s="80"/>
       <c r="B158" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D158" s="42"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="44"/>
+        <v>372</v>
+      </c>
+      <c r="D158" s="53"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="55"/>
     </row>
     <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="28"/>
+      <c r="A159" s="80"/>
       <c r="B159" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D159" s="42"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="44"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="55"/>
     </row>
     <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="28"/>
+      <c r="A160" s="80"/>
       <c r="B160" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D160" s="42"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="44"/>
+      <c r="D160" s="53"/>
+      <c r="E160" s="56"/>
+      <c r="F160" s="55"/>
     </row>
     <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="28"/>
+      <c r="A161" s="80"/>
       <c r="B161" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D161" s="42"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="44"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="55"/>
     </row>
     <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="28"/>
+      <c r="A162" s="80"/>
       <c r="B162" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="42"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="44"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="55"/>
     </row>
     <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="28"/>
+      <c r="A163" s="80"/>
       <c r="B163" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D163" s="42"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="44"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="55"/>
     </row>
     <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="28"/>
+      <c r="A164" s="80"/>
       <c r="B164" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D164" s="42"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="44"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="55"/>
     </row>
     <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="28"/>
+      <c r="A165" s="80"/>
       <c r="B165" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D165" s="42"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="44"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="55"/>
     </row>
     <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="28"/>
+      <c r="A166" s="80"/>
       <c r="B166" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="44"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="55"/>
     </row>
     <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="28"/>
+      <c r="A167" s="80"/>
       <c r="B167" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C167" s="9"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="44"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="55"/>
     </row>
     <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="28"/>
+      <c r="A168" s="80"/>
       <c r="B168" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D168" s="42"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="44"/>
+      <c r="D168" s="53"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="55"/>
     </row>
     <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="28"/>
+      <c r="A169" s="80"/>
       <c r="B169" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D169" s="42"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="44"/>
+        <v>373</v>
+      </c>
+      <c r="D169" s="53"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="55"/>
     </row>
     <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="28"/>
+      <c r="A170" s="80"/>
       <c r="B170" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D170" s="42"/>
-      <c r="E170" s="43"/>
-      <c r="F170" s="44"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="56"/>
+      <c r="F170" s="55"/>
     </row>
     <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="28"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C171" s="9"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="44"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="55"/>
     </row>
     <row r="172" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="28"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D172" s="42"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="44"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="55"/>
     </row>
     <row r="173" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="28"/>
+      <c r="A173" s="80"/>
       <c r="B173" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D173" s="42"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="44"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="55"/>
     </row>
     <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="28"/>
+      <c r="A174" s="80"/>
       <c r="B174" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D174" s="42"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="44"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="55"/>
     </row>
     <row r="175" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="28"/>
+      <c r="A175" s="80"/>
       <c r="B175" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="42"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="44"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="55"/>
     </row>
     <row r="176" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="28"/>
+      <c r="A176" s="80"/>
       <c r="B176" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D176" s="42"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="44"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="55"/>
     </row>
     <row r="177" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="28"/>
+      <c r="A177" s="80"/>
       <c r="B177" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D177" s="42"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="44"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="55"/>
     </row>
     <row r="178" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="28"/>
+      <c r="A178" s="80"/>
       <c r="B178" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="44"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="55"/>
     </row>
     <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="28"/>
+      <c r="A179" s="80"/>
       <c r="B179" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D179" s="42"/>
-      <c r="E179" s="43"/>
-      <c r="F179" s="44"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="55"/>
     </row>
     <row r="180" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="28"/>
+      <c r="A180" s="80"/>
       <c r="B180" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D180" s="42"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="44"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="55"/>
     </row>
     <row r="181" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="28"/>
+      <c r="A181" s="80"/>
       <c r="B181" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D181" s="53"/>
+      <c r="E181" s="56"/>
+      <c r="F181" s="55"/>
+    </row>
+    <row r="182" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="80"/>
+      <c r="B182" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C182" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D181" s="42"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="44"/>
-    </row>
-    <row r="182" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="28"/>
-      <c r="B182" s="9" t="s">
+      <c r="D182" s="53"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="55"/>
+    </row>
+    <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="80"/>
+      <c r="B183" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C183" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D182" s="42"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="44"/>
-    </row>
-    <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="28"/>
-      <c r="B183" s="9" t="s">
+      <c r="D183" s="53"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="55"/>
+    </row>
+    <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="80"/>
+      <c r="B184" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C183" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D183" s="42"/>
-      <c r="E183" s="43"/>
-      <c r="F183" s="44"/>
-    </row>
-    <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="28"/>
-      <c r="B184" s="9" t="s">
+      <c r="C184" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" s="53"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="55"/>
+    </row>
+    <row r="185" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="80"/>
+      <c r="B185" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="44"/>
-    </row>
-    <row r="185" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="28"/>
-      <c r="B185" s="9" t="s">
+      <c r="C185" s="9"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="55"/>
+    </row>
+    <row r="186" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="80"/>
+      <c r="B186" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D185" s="42"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="44"/>
-    </row>
-    <row r="186" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="28"/>
-      <c r="B186" s="9" t="s">
+      <c r="D186" s="53"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="55"/>
+    </row>
+    <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="80"/>
+      <c r="B187" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="44"/>
-    </row>
-    <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="28"/>
-      <c r="B187" s="9" t="s">
+      <c r="C187" s="9"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="55"/>
+    </row>
+    <row r="188" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="80"/>
+      <c r="B188" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="43"/>
-      <c r="F187" s="44"/>
-    </row>
-    <row r="188" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="28"/>
-      <c r="B188" s="9" t="s">
+      <c r="C188" s="9"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="56"/>
+      <c r="F188" s="55"/>
+    </row>
+    <row r="189" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="80"/>
+      <c r="B189" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C189" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D188" s="42"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="44"/>
-    </row>
-    <row r="189" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="28"/>
-      <c r="B189" s="9" t="s">
+      <c r="D189" s="53"/>
+      <c r="E189" s="56"/>
+      <c r="F189" s="55"/>
+    </row>
+    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="80"/>
+      <c r="B190" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C190" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D189" s="42"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="44"/>
-    </row>
-    <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="28"/>
-      <c r="B190" s="9" t="s">
+      <c r="D190" s="53"/>
+      <c r="E190" s="56"/>
+      <c r="F190" s="55"/>
+    </row>
+    <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="80"/>
+      <c r="B191" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C191" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="44"/>
-    </row>
-    <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="28"/>
-      <c r="B191" s="9" t="s">
+      <c r="D191" s="53"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="55"/>
+    </row>
+    <row r="192" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="80"/>
+      <c r="B192" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C192" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D191" s="42"/>
-      <c r="E191" s="43"/>
-      <c r="F191" s="44"/>
-    </row>
-    <row r="192" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="28"/>
-      <c r="B192" s="9" t="s">
+      <c r="D192" s="53"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="55"/>
+    </row>
+    <row r="193" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="80"/>
+      <c r="B193" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D192" s="42"/>
-      <c r="E192" s="43"/>
-      <c r="F192" s="44"/>
-    </row>
-    <row r="193" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="28"/>
-      <c r="B193" s="9" t="s">
+      <c r="C193" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D193" s="53"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="55"/>
+    </row>
+    <row r="194" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="80"/>
+      <c r="B194" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C194" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D193" s="42"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="44"/>
-    </row>
-    <row r="194" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="28"/>
-      <c r="B194" s="9" t="s">
+      <c r="D194" s="53"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="55"/>
+    </row>
+    <row r="195" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="80"/>
+      <c r="B195" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C195" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D194" s="42"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="44"/>
-    </row>
-    <row r="195" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="28"/>
-      <c r="B195" s="9" t="s">
+      <c r="D195" s="53"/>
+      <c r="E195" s="56"/>
+      <c r="F195" s="55"/>
+    </row>
+    <row r="196" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="80"/>
+      <c r="B196" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="42"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="44"/>
-    </row>
-    <row r="196" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="28"/>
-      <c r="B196" s="9" t="s">
+      <c r="C196" s="9"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="56"/>
+      <c r="F196" s="55"/>
+    </row>
+    <row r="197" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="80"/>
+      <c r="B197" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D196" s="42"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="44"/>
-    </row>
-    <row r="197" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="28"/>
-      <c r="B197" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D197" s="42"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="44"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="55"/>
     </row>
     <row r="198" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="28"/>
+      <c r="A198" s="80"/>
       <c r="B198" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D198" s="45"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="47"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="56"/>
+      <c r="F198" s="55"/>
     </row>
     <row r="199" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="29"/>
-      <c r="B199" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
-      <c r="F199" s="80"/>
+      <c r="A199" s="80"/>
+      <c r="B199" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D199" s="57"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="59"/>
     </row>
     <row r="200" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="81"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="83"/>
+      <c r="B200" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="45"/>
     </row>
     <row r="201" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="19" t="s">
+      <c r="A201" s="29"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="31"/>
+    </row>
+    <row r="202" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B202" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C202" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D201" s="95" t="s">
+      <c r="D202" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E201" s="95"/>
-      <c r="F201" s="95"/>
-    </row>
-    <row r="202" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="71" t="s">
+      <c r="E202" s="63"/>
+      <c r="F202" s="63"/>
+    </row>
+    <row r="203" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="B202" s="20" t="s">
+      <c r="B203" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C203" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D202" s="95"/>
-      <c r="E202" s="95"/>
-      <c r="F202" s="95"/>
-    </row>
-    <row r="203" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="72"/>
-      <c r="B203" s="20" t="s">
+      <c r="D203" s="63"/>
+      <c r="E203" s="63"/>
+      <c r="F203" s="63"/>
+    </row>
+    <row r="204" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="83"/>
+      <c r="B204" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="20" t="s">
+      <c r="C204" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+    </row>
+    <row r="205" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="83"/>
+      <c r="B205" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C205" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="D203" s="95"/>
-      <c r="E203" s="95"/>
-      <c r="F203" s="95"/>
-    </row>
-    <row r="204" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="72"/>
-      <c r="B204" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C204" s="20" t="s">
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+    </row>
+    <row r="206" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="84"/>
+      <c r="B206" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="D204" s="95"/>
-      <c r="E204" s="95"/>
-      <c r="F204" s="95"/>
-    </row>
-    <row r="205" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="73"/>
-      <c r="B205" s="21" t="s">
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+    </row>
+    <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="50"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="51"/>
+      <c r="E207" s="51"/>
+      <c r="F207" s="52"/>
+    </row>
+    <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E208" s="54"/>
+      <c r="F208" s="55"/>
+    </row>
+    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D209" s="53"/>
+      <c r="E209" s="56"/>
+      <c r="F209" s="55"/>
+    </row>
+    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="81"/>
+      <c r="B210" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D205" s="95"/>
-      <c r="E205" s="95"/>
-      <c r="F205" s="95"/>
-    </row>
-    <row r="206" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="89"/>
-      <c r="B206" s="90"/>
-      <c r="C206" s="90"/>
-      <c r="D206" s="90"/>
-      <c r="E206" s="90"/>
-      <c r="F206" s="91"/>
-    </row>
-    <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="22" t="s">
+      <c r="C210" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D210" s="57"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="59"/>
+    </row>
+    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="32"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="34"/>
+    </row>
+    <row r="212" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B207" s="23" t="s">
+      <c r="B212" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C212" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D207" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E207" s="88"/>
-      <c r="F207" s="44"/>
-    </row>
-    <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B208" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D208" s="42"/>
-      <c r="E208" s="43"/>
-      <c r="F208" s="44"/>
-    </row>
-    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="29"/>
-      <c r="B209" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D209" s="45"/>
-      <c r="E209" s="46"/>
-      <c r="F209" s="47"/>
-    </row>
-    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="75"/>
-      <c r="B210" s="76"/>
-      <c r="C210" s="76"/>
-      <c r="D210" s="76"/>
-      <c r="E210" s="76"/>
-      <c r="F210" s="77"/>
-    </row>
-    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="39" t="s">
+      <c r="D212" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="E211" s="40"/>
-      <c r="F211" s="41"/>
-    </row>
-    <row r="212" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="68" t="s">
+      <c r="E212" s="61"/>
+      <c r="F212" s="62"/>
+    </row>
+    <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B213" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C213" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D212" s="42"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="44"/>
-    </row>
-    <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="69"/>
-      <c r="B213" s="9" t="s">
+      <c r="D213" s="53"/>
+      <c r="E213" s="56"/>
+      <c r="F213" s="55"/>
+    </row>
+    <row r="214" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="68"/>
+      <c r="B214" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="42"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="44"/>
-    </row>
-    <row r="214" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="69"/>
-      <c r="B214" s="9" t="s">
+      <c r="C214" s="9"/>
+      <c r="D214" s="53"/>
+      <c r="E214" s="56"/>
+      <c r="F214" s="55"/>
+    </row>
+    <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="68"/>
+      <c r="B215" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="42"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="44"/>
-    </row>
-    <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="69"/>
-      <c r="B215" s="9" t="s">
+      <c r="C215" s="9"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="55"/>
+    </row>
+    <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="68"/>
+      <c r="B216" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C216" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D215" s="42"/>
-      <c r="E215" s="43"/>
-      <c r="F215" s="44"/>
-    </row>
-    <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="69"/>
-      <c r="B216" s="9" t="s">
+      <c r="D216" s="53"/>
+      <c r="E216" s="56"/>
+      <c r="F216" s="55"/>
+    </row>
+    <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="68"/>
+      <c r="B217" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="42"/>
-      <c r="E216" s="43"/>
-      <c r="F216" s="44"/>
-    </row>
-    <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="69"/>
-      <c r="B217" s="9" t="s">
+      <c r="C217" s="9"/>
+      <c r="D217" s="53"/>
+      <c r="E217" s="56"/>
+      <c r="F217" s="55"/>
+    </row>
+    <row r="218" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="68"/>
+      <c r="B218" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D217" s="42"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="44"/>
-    </row>
-    <row r="218" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="69"/>
-      <c r="B218" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D218" s="42"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="44"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="55"/>
     </row>
     <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="69"/>
+      <c r="A219" s="68"/>
       <c r="B219" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D219" s="53"/>
+      <c r="E219" s="56"/>
+      <c r="F219" s="55"/>
+    </row>
+    <row r="220" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="68"/>
+      <c r="B220" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="42"/>
-      <c r="E219" s="43"/>
-      <c r="F219" s="44"/>
-    </row>
-    <row r="220" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="69"/>
-      <c r="B220" s="9" t="s">
+      <c r="C220" s="9"/>
+      <c r="D220" s="53"/>
+      <c r="E220" s="56"/>
+      <c r="F220" s="55"/>
+    </row>
+    <row r="221" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="68"/>
+      <c r="B221" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C221" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D220" s="42"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="44"/>
-    </row>
-    <row r="221" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="69"/>
-      <c r="B221" s="9" t="s">
+      <c r="D221" s="53"/>
+      <c r="E221" s="56"/>
+      <c r="F221" s="55"/>
+    </row>
+    <row r="222" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="68"/>
+      <c r="B222" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D221" s="42"/>
-      <c r="E221" s="43"/>
-      <c r="F221" s="44"/>
-    </row>
-    <row r="222" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="69"/>
-      <c r="B222" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D222" s="42"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="44"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="55"/>
     </row>
     <row r="223" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="69"/>
+      <c r="A223" s="68"/>
       <c r="B223" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D223" s="53"/>
+      <c r="E223" s="56"/>
+      <c r="F223" s="55"/>
+    </row>
+    <row r="224" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="68"/>
+      <c r="B224" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="42"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="44"/>
-    </row>
-    <row r="224" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="69"/>
-      <c r="B224" s="9" t="s">
+      <c r="C224" s="9"/>
+      <c r="D224" s="53"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="55"/>
+    </row>
+    <row r="225" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="68"/>
+      <c r="B225" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="42"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="44"/>
-    </row>
-    <row r="225" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="69"/>
-      <c r="B225" s="9" t="s">
+      <c r="C225" s="9"/>
+      <c r="D225" s="53"/>
+      <c r="E225" s="56"/>
+      <c r="F225" s="55"/>
+    </row>
+    <row r="226" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="68"/>
+      <c r="B226" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="42"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="44"/>
-    </row>
-    <row r="226" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="70"/>
-      <c r="B226" s="11" t="s">
+      <c r="C226" s="9"/>
+      <c r="D226" s="53"/>
+      <c r="E226" s="56"/>
+      <c r="F226" s="55"/>
+    </row>
+    <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="69"/>
+      <c r="B227" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C226" s="78" t="s">
+      <c r="C227" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="45"/>
+    </row>
+    <row r="228" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="32"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="34"/>
+    </row>
+    <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E229" s="61"/>
+      <c r="F229" s="62"/>
+    </row>
+    <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C230" s="9"/>
+      <c r="D230" s="53"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="55"/>
+    </row>
+    <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="71"/>
+      <c r="B231" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D226" s="79"/>
-      <c r="E226" s="79"/>
-      <c r="F226" s="80"/>
-    </row>
-    <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="75"/>
-      <c r="B227" s="76"/>
-      <c r="C227" s="76"/>
-      <c r="D227" s="76"/>
-      <c r="E227" s="76"/>
-      <c r="F227" s="77"/>
-    </row>
-    <row r="228" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="7" t="s">
+      <c r="D231" s="57"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="59"/>
+    </row>
+    <row r="232" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="29"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="31"/>
+    </row>
+    <row r="233" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B233" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C233" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D228" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E228" s="40"/>
-      <c r="F228" s="41"/>
-    </row>
-    <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="42"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="44"/>
-    </row>
-    <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="74"/>
-      <c r="B230" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="15" t="s">
+      <c r="D233" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E233" s="61"/>
+      <c r="F233" s="62"/>
+    </row>
+    <row r="234" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D234" s="53"/>
+      <c r="E234" s="56"/>
+      <c r="F234" s="55"/>
+    </row>
+    <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="80"/>
+      <c r="B235" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C235" s="15"/>
+      <c r="D235" s="53"/>
+      <c r="E235" s="56"/>
+      <c r="F235" s="55"/>
+    </row>
+    <row r="236" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="80"/>
+      <c r="B236" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C236" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D230" s="45"/>
-      <c r="E230" s="46"/>
-      <c r="F230" s="47"/>
-    </row>
-    <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="81"/>
-      <c r="B231" s="82"/>
-      <c r="C231" s="82"/>
-      <c r="D231" s="82"/>
-      <c r="E231" s="82"/>
-      <c r="F231" s="83"/>
-    </row>
-    <row r="232" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D232" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E232" s="40"/>
-      <c r="F232" s="41"/>
-    </row>
-    <row r="233" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C233" s="15" t="s">
+      <c r="D236" s="53"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="55"/>
+    </row>
+    <row r="237" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="80"/>
+      <c r="B237" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C237" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D233" s="42"/>
-      <c r="E233" s="43"/>
-      <c r="F233" s="44"/>
-    </row>
-    <row r="234" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="28"/>
-      <c r="B234" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C234" s="15"/>
-      <c r="D234" s="42"/>
-      <c r="E234" s="43"/>
-      <c r="F234" s="44"/>
-    </row>
-    <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="28"/>
-      <c r="B235" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C235" s="15" t="s">
+      <c r="D237" s="53"/>
+      <c r="E237" s="56"/>
+      <c r="F237" s="55"/>
+    </row>
+    <row r="238" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="80"/>
+      <c r="B238" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C238" s="15"/>
+      <c r="D238" s="53"/>
+      <c r="E238" s="56"/>
+      <c r="F238" s="55"/>
+    </row>
+    <row r="239" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="80"/>
+      <c r="B239" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C239" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="D235" s="42"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="44"/>
-    </row>
-    <row r="236" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="28"/>
-      <c r="B236" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C236" s="15" t="s">
+      <c r="D239" s="53"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="55"/>
+    </row>
+    <row r="240" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="80"/>
+      <c r="B240" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D240" s="53"/>
+      <c r="E240" s="56"/>
+      <c r="F240" s="55"/>
+    </row>
+    <row r="241" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="80"/>
+      <c r="B241" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C241" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D241" s="53"/>
+      <c r="E241" s="56"/>
+      <c r="F241" s="55"/>
+    </row>
+    <row r="242" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="80"/>
+      <c r="B242" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C242" s="15"/>
+      <c r="D242" s="53"/>
+      <c r="E242" s="56"/>
+      <c r="F242" s="55"/>
+    </row>
+    <row r="243" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="80"/>
+      <c r="B243" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C243" s="15"/>
+      <c r="D243" s="53"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="55"/>
+    </row>
+    <row r="244" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="80"/>
+      <c r="B244" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D244" s="53"/>
+      <c r="E244" s="56"/>
+      <c r="F244" s="55"/>
+    </row>
+    <row r="245" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="80"/>
+      <c r="B245" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D245" s="53"/>
+      <c r="E245" s="56"/>
+      <c r="F245" s="55"/>
+    </row>
+    <row r="246" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="80"/>
+      <c r="B246" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C246" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D246" s="53"/>
+      <c r="E246" s="56"/>
+      <c r="F246" s="55"/>
+    </row>
+    <row r="247" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="80"/>
+      <c r="B247" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" s="53"/>
+      <c r="E247" s="56"/>
+      <c r="F247" s="55"/>
+    </row>
+    <row r="248" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="80"/>
+      <c r="B248" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C248" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D236" s="42"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="44"/>
-    </row>
-    <row r="237" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="28"/>
-      <c r="B237" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="C237" s="15"/>
-      <c r="D237" s="42"/>
-      <c r="E237" s="43"/>
-      <c r="F237" s="44"/>
-    </row>
-    <row r="238" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="28"/>
-      <c r="B238" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D238" s="42"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="44"/>
-    </row>
-    <row r="239" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="28"/>
-      <c r="B239" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D239" s="42"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="44"/>
-    </row>
-    <row r="240" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="28"/>
-      <c r="B240" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D240" s="42"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="44"/>
-    </row>
-    <row r="241" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="28"/>
-      <c r="B241" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C241" s="15"/>
-      <c r="D241" s="42"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="44"/>
-    </row>
-    <row r="242" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="28"/>
-      <c r="B242" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C242" s="15"/>
-      <c r="D242" s="42"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="44"/>
-    </row>
-    <row r="243" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="28"/>
-      <c r="B243" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D243" s="42"/>
-      <c r="E243" s="43"/>
-      <c r="F243" s="44"/>
-    </row>
-    <row r="244" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="28"/>
-      <c r="B244" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D244" s="42"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="44"/>
-    </row>
-    <row r="245" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="28"/>
-      <c r="B245" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C245" s="15" t="s">
+      <c r="D248" s="53"/>
+      <c r="E248" s="56"/>
+      <c r="F248" s="55"/>
+    </row>
+    <row r="249" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="80"/>
+      <c r="B249" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D249" s="53"/>
+      <c r="E249" s="56"/>
+      <c r="F249" s="55"/>
+    </row>
+    <row r="250" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="80"/>
+      <c r="B250" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D250" s="53"/>
+      <c r="E250" s="56"/>
+      <c r="F250" s="55"/>
+    </row>
+    <row r="251" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="80"/>
+      <c r="B251" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D251" s="53"/>
+      <c r="E251" s="56"/>
+      <c r="F251" s="55"/>
+    </row>
+    <row r="252" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="80"/>
+      <c r="B252" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D252" s="53"/>
+      <c r="E252" s="56"/>
+      <c r="F252" s="55"/>
+    </row>
+    <row r="253" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="80"/>
+      <c r="B253" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D253" s="53"/>
+      <c r="E253" s="56"/>
+      <c r="F253" s="55"/>
+    </row>
+    <row r="254" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="80"/>
+      <c r="B254" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C254" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D245" s="42"/>
-      <c r="E245" s="43"/>
-      <c r="F245" s="44"/>
-    </row>
-    <row r="246" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="28"/>
-      <c r="B246" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D246" s="42"/>
-      <c r="E246" s="43"/>
-      <c r="F246" s="44"/>
-    </row>
-    <row r="247" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="28"/>
-      <c r="B247" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D247" s="42"/>
-      <c r="E247" s="43"/>
-      <c r="F247" s="44"/>
-    </row>
-    <row r="248" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="28"/>
-      <c r="B248" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C248" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D248" s="42"/>
-      <c r="E248" s="43"/>
-      <c r="F248" s="44"/>
-    </row>
-    <row r="249" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="28"/>
-      <c r="B249" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D249" s="42"/>
-      <c r="E249" s="43"/>
-      <c r="F249" s="44"/>
-    </row>
-    <row r="250" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="28"/>
-      <c r="B250" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C250" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D250" s="42"/>
-      <c r="E250" s="43"/>
-      <c r="F250" s="44"/>
-    </row>
-    <row r="251" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="28"/>
-      <c r="B251" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D251" s="42"/>
-      <c r="E251" s="43"/>
-      <c r="F251" s="44"/>
-    </row>
-    <row r="252" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="28"/>
-      <c r="B252" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C252" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D252" s="42"/>
-      <c r="E252" s="43"/>
-      <c r="F252" s="44"/>
-    </row>
-    <row r="253" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="28"/>
-      <c r="B253" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D253" s="42"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="44"/>
-    </row>
-    <row r="254" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="28"/>
-      <c r="B254" s="15" t="s">
+      <c r="D254" s="53"/>
+      <c r="E254" s="56"/>
+      <c r="F254" s="55"/>
+    </row>
+    <row r="255" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="80"/>
+      <c r="B255" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C254" s="15"/>
-      <c r="D254" s="42"/>
-      <c r="E254" s="43"/>
-      <c r="F254" s="44"/>
-    </row>
-    <row r="255" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="29"/>
-      <c r="B255" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C255" s="92" t="s">
-        <v>319</v>
-      </c>
-      <c r="D255" s="93"/>
-      <c r="E255" s="93"/>
-      <c r="F255" s="94"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="53"/>
+      <c r="E255" s="56"/>
+      <c r="F255" s="55"/>
     </row>
     <row r="256" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="81"/>
-      <c r="B256" s="82"/>
-      <c r="C256" s="82"/>
-      <c r="D256" s="82"/>
-      <c r="E256" s="82"/>
-      <c r="F256" s="83"/>
+      <c r="B256" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D256" s="48"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="49"/>
     </row>
     <row r="257" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="29"/>
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
+      <c r="E257" s="30"/>
+      <c r="F257" s="31"/>
+    </row>
+    <row r="258" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B258" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C258" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D257" s="48" t="s">
+      <c r="D258" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E257" s="49"/>
-      <c r="F257" s="50"/>
-    </row>
-    <row r="258" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="69" t="s">
+      <c r="E258" s="95"/>
+      <c r="F258" s="96"/>
+    </row>
+    <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B259" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C258" s="25"/>
-      <c r="D258" s="51"/>
-      <c r="E258" s="52"/>
-      <c r="F258" s="53"/>
-    </row>
-    <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="70"/>
-      <c r="B259" s="11" t="s">
+      <c r="C259" s="25"/>
+      <c r="D259" s="97"/>
+      <c r="E259" s="98"/>
+      <c r="F259" s="99"/>
+    </row>
+    <row r="260" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="69"/>
+      <c r="B260" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C259" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="D259" s="76"/>
-      <c r="E259" s="76"/>
-      <c r="F259" s="77"/>
-    </row>
-    <row r="260" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="75"/>
-      <c r="B260" s="76"/>
-      <c r="C260" s="76"/>
-      <c r="D260" s="76"/>
-      <c r="E260" s="76"/>
-      <c r="F260" s="77"/>
+      <c r="C260" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="32"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="34"/>
+    </row>
+    <row r="262" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B262" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C262" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D261" s="39" t="s">
+      <c r="D262" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="E261" s="40"/>
-      <c r="F261" s="41"/>
-    </row>
-    <row r="262" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="68" t="s">
+      <c r="E262" s="61"/>
+      <c r="F262" s="62"/>
+    </row>
+    <row r="263" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B263" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="42"/>
-      <c r="E262" s="88"/>
-      <c r="F262" s="44"/>
-    </row>
-    <row r="263" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="69"/>
-      <c r="B263" s="9" t="s">
+      <c r="C263" s="9"/>
+      <c r="D263" s="53"/>
+      <c r="E263" s="54"/>
+      <c r="F263" s="55"/>
+    </row>
+    <row r="264" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="68"/>
+      <c r="B264" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="42"/>
-      <c r="E263" s="88"/>
-      <c r="F263" s="44"/>
-    </row>
-    <row r="264" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="69"/>
-      <c r="B264" s="9" t="s">
+      <c r="C264" s="9"/>
+      <c r="D264" s="53"/>
+      <c r="E264" s="54"/>
+      <c r="F264" s="55"/>
+    </row>
+    <row r="265" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="68"/>
+      <c r="B265" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C265" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D265" s="53"/>
+      <c r="E265" s="54"/>
+      <c r="F265" s="55"/>
+    </row>
+    <row r="266" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="68"/>
+      <c r="B266" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D266" s="53"/>
+      <c r="E266" s="54"/>
+      <c r="F266" s="55"/>
+    </row>
+    <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="68"/>
+      <c r="B267" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C267" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D264" s="42"/>
-      <c r="E264" s="88"/>
-      <c r="F264" s="44"/>
-    </row>
-    <row r="265" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="69"/>
-      <c r="B265" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C265" s="9" t="s">
+      <c r="D267" s="53"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="55"/>
+    </row>
+    <row r="268" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="68"/>
+      <c r="B268" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C268" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D265" s="42"/>
-      <c r="E265" s="88"/>
-      <c r="F265" s="44"/>
-    </row>
-    <row r="266" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="69"/>
-      <c r="B266" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C266" s="9" t="s">
+      <c r="D268" s="53"/>
+      <c r="E268" s="54"/>
+      <c r="F268" s="55"/>
+    </row>
+    <row r="269" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="68"/>
+      <c r="B269" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D269" s="53"/>
+      <c r="E269" s="54"/>
+      <c r="F269" s="55"/>
+    </row>
+    <row r="270" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="68"/>
+      <c r="B270" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C270" s="25"/>
+      <c r="D270" s="53"/>
+      <c r="E270" s="54"/>
+      <c r="F270" s="55"/>
+    </row>
+    <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="68"/>
+      <c r="B271" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C271" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D266" s="42"/>
-      <c r="E266" s="88"/>
-      <c r="F266" s="44"/>
-    </row>
-    <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="69"/>
-      <c r="B267" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D267" s="42"/>
-      <c r="E267" s="88"/>
-      <c r="F267" s="44"/>
-    </row>
-    <row r="268" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="69"/>
-      <c r="B268" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C268" s="9" t="s">
+      <c r="D271" s="53"/>
+      <c r="E271" s="54"/>
+      <c r="F271" s="55"/>
+    </row>
+    <row r="272" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="69"/>
+      <c r="B272" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D272" s="57"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="59"/>
+    </row>
+    <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="32"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="33"/>
+      <c r="F273" s="34"/>
+    </row>
+    <row r="274" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" s="95"/>
+      <c r="F274" s="96"/>
+    </row>
+    <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D275" s="97"/>
+      <c r="E275" s="98"/>
+      <c r="F275" s="99"/>
+    </row>
+    <row r="276" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="68"/>
+      <c r="B276" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D276" s="97"/>
+      <c r="E276" s="98"/>
+      <c r="F276" s="99"/>
+    </row>
+    <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="69"/>
+      <c r="B277" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="D277" s="44"/>
+      <c r="E277" s="44"/>
+      <c r="F277" s="45"/>
+    </row>
+    <row r="278" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D279" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="E279" s="61"/>
+      <c r="F279" s="62"/>
+    </row>
+    <row r="280" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280" s="53"/>
+      <c r="E280" s="56"/>
+      <c r="F280" s="55"/>
+    </row>
+    <row r="281" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="70"/>
+      <c r="B281" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D281" s="53"/>
+      <c r="E281" s="56"/>
+      <c r="F281" s="55"/>
+    </row>
+    <row r="282" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="70"/>
+      <c r="B282" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D282" s="53"/>
+      <c r="E282" s="56"/>
+      <c r="F282" s="55"/>
+    </row>
+    <row r="283" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="70"/>
+      <c r="B283" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D283" s="53"/>
+      <c r="E283" s="56"/>
+      <c r="F283" s="55"/>
+    </row>
+    <row r="284" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="70"/>
+      <c r="B284" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D284" s="53"/>
+      <c r="E284" s="56"/>
+      <c r="F284" s="55"/>
+    </row>
+    <row r="285" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="70"/>
+      <c r="B285" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D285" s="53"/>
+      <c r="E285" s="56"/>
+      <c r="F285" s="55"/>
+    </row>
+    <row r="286" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="70"/>
+      <c r="B286" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C286" s="9"/>
+      <c r="D286" s="53"/>
+      <c r="E286" s="56"/>
+      <c r="F286" s="55"/>
+    </row>
+    <row r="287" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="70"/>
+      <c r="B287" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C287" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D268" s="42"/>
-      <c r="E268" s="88"/>
-      <c r="F268" s="44"/>
-    </row>
-    <row r="269" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="69"/>
-      <c r="B269" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C269" s="25"/>
-      <c r="D269" s="42"/>
-      <c r="E269" s="88"/>
-      <c r="F269" s="44"/>
-    </row>
-    <row r="270" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="69"/>
-      <c r="B270" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D270" s="42"/>
-      <c r="E270" s="88"/>
-      <c r="F270" s="44"/>
-    </row>
-    <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="70"/>
-      <c r="B271" s="11" t="s">
+      <c r="D287" s="53"/>
+      <c r="E287" s="56"/>
+      <c r="F287" s="55"/>
+    </row>
+    <row r="288" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="70"/>
+      <c r="B288" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D288" s="53"/>
+      <c r="E288" s="56"/>
+      <c r="F288" s="55"/>
+    </row>
+    <row r="289" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="70"/>
+      <c r="B289" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D289" s="53"/>
+      <c r="E289" s="56"/>
+      <c r="F289" s="55"/>
+    </row>
+    <row r="290" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="70"/>
+      <c r="B290" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C290" s="9"/>
+      <c r="D290" s="53"/>
+      <c r="E290" s="56"/>
+      <c r="F290" s="55"/>
+    </row>
+    <row r="291" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="70"/>
+      <c r="B291" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C291" s="9"/>
+      <c r="D291" s="53"/>
+      <c r="E291" s="56"/>
+      <c r="F291" s="55"/>
+    </row>
+    <row r="292" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="70"/>
+      <c r="B292" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D292" s="53"/>
+      <c r="E292" s="56"/>
+      <c r="F292" s="55"/>
+    </row>
+    <row r="293" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="70"/>
+      <c r="B293" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D293" s="53"/>
+      <c r="E293" s="56"/>
+      <c r="F293" s="55"/>
+    </row>
+    <row r="294" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="70"/>
+      <c r="B294" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D294" s="53"/>
+      <c r="E294" s="56"/>
+      <c r="F294" s="55"/>
+    </row>
+    <row r="295" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="70"/>
+      <c r="B295" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C295" s="9"/>
+      <c r="D295" s="53"/>
+      <c r="E295" s="56"/>
+      <c r="F295" s="55"/>
+    </row>
+    <row r="296" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="70"/>
+      <c r="B296" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D296" s="53"/>
+      <c r="E296" s="56"/>
+      <c r="F296" s="55"/>
+    </row>
+    <row r="297" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="70"/>
+      <c r="B297" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C297" s="9"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="58"/>
+      <c r="F297" s="59"/>
+    </row>
+    <row r="298" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="71"/>
+      <c r="B298" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C271" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D271" s="45"/>
-      <c r="E271" s="46"/>
-      <c r="F271" s="47"/>
-    </row>
-    <row r="272" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="75"/>
-      <c r="B272" s="76"/>
-      <c r="C272" s="76"/>
-      <c r="D272" s="76"/>
-      <c r="E272" s="76"/>
-      <c r="F272" s="77"/>
-    </row>
-    <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="7" t="s">
+      <c r="C298" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D298" s="44"/>
+      <c r="E298" s="44"/>
+      <c r="F298" s="45"/>
+    </row>
+    <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="29"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
+      <c r="F299" s="31"/>
+    </row>
+    <row r="300" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B300" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C300" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D273" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E273" s="49"/>
-      <c r="F273" s="50"/>
-    </row>
-    <row r="274" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C274" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D274" s="51"/>
-      <c r="E274" s="52"/>
-      <c r="F274" s="53"/>
-    </row>
-    <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="69"/>
-      <c r="B275" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C275" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D275" s="51"/>
-      <c r="E275" s="52"/>
-      <c r="F275" s="53"/>
-    </row>
-    <row r="276" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="70"/>
-      <c r="B276" s="11" t="s">
+      <c r="D300" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E300" s="95"/>
+      <c r="F300" s="96"/>
+    </row>
+    <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C301" s="26"/>
+      <c r="D301" s="97"/>
+      <c r="E301" s="98"/>
+      <c r="F301" s="99"/>
+    </row>
+    <row r="302" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="71"/>
+      <c r="B302" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C276" s="78" t="s">
-        <v>326</v>
-      </c>
-      <c r="D276" s="79"/>
-      <c r="E276" s="79"/>
-      <c r="F276" s="80"/>
-    </row>
-    <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="7" t="s">
+      <c r="C302" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="66"/>
+    </row>
+    <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="29"/>
+      <c r="B303" s="30"/>
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+      <c r="E303" s="30"/>
+      <c r="F303" s="31"/>
+    </row>
+    <row r="304" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B304" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C278" s="8" t="s">
+      <c r="C304" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D278" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="E278" s="40"/>
-      <c r="F278" s="41"/>
-    </row>
-    <row r="279" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D279" s="42"/>
-      <c r="E279" s="43"/>
-      <c r="F279" s="44"/>
-    </row>
-    <row r="280" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="87"/>
-      <c r="B280" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D280" s="42"/>
-      <c r="E280" s="43"/>
-      <c r="F280" s="44"/>
-    </row>
-    <row r="281" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="87"/>
-      <c r="B281" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D281" s="42"/>
-      <c r="E281" s="43"/>
-      <c r="F281" s="44"/>
-    </row>
-    <row r="282" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="87"/>
-      <c r="B282" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D282" s="42"/>
-      <c r="E282" s="43"/>
-      <c r="F282" s="44"/>
-    </row>
-    <row r="283" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="87"/>
-      <c r="B283" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C283" s="9" t="s">
+      <c r="D304" s="100" t="s">
+        <v>266</v>
+      </c>
+      <c r="E304" s="101"/>
+      <c r="F304" s="102"/>
+    </row>
+    <row r="305" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C305" s="9"/>
+      <c r="D305" s="103"/>
+      <c r="E305" s="104"/>
+      <c r="F305" s="105"/>
+    </row>
+    <row r="306" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="68"/>
+      <c r="B306" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C306" s="9"/>
+      <c r="D306" s="103"/>
+      <c r="E306" s="104"/>
+      <c r="F306" s="105"/>
+    </row>
+    <row r="307" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="68"/>
+      <c r="B307" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C307" s="9"/>
+      <c r="D307" s="103"/>
+      <c r="E307" s="104"/>
+      <c r="F307" s="105"/>
+    </row>
+    <row r="308" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="68"/>
+      <c r="B308" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C308" s="9"/>
+      <c r="D308" s="103"/>
+      <c r="E308" s="104"/>
+      <c r="F308" s="105"/>
+    </row>
+    <row r="309" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="68"/>
+      <c r="B309" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C309" s="9"/>
+      <c r="D309" s="103"/>
+      <c r="E309" s="104"/>
+      <c r="F309" s="105"/>
+    </row>
+    <row r="310" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="68"/>
+      <c r="B310" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D310" s="103"/>
+      <c r="E310" s="104"/>
+      <c r="F310" s="105"/>
+    </row>
+    <row r="311" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="68"/>
+      <c r="B311" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D311" s="103"/>
+      <c r="E311" s="104"/>
+      <c r="F311" s="105"/>
+    </row>
+    <row r="312" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="68"/>
+      <c r="B312" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C312" s="9"/>
+      <c r="D312" s="103"/>
+      <c r="E312" s="104"/>
+      <c r="F312" s="105"/>
+    </row>
+    <row r="313" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="68"/>
+      <c r="B313" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C313" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D283" s="42"/>
-      <c r="E283" s="43"/>
-      <c r="F283" s="44"/>
-    </row>
-    <row r="284" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="87"/>
-      <c r="B284" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D284" s="42"/>
-      <c r="E284" s="43"/>
-      <c r="F284" s="44"/>
-    </row>
-    <row r="285" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="87"/>
-      <c r="B285" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C285" s="9"/>
-      <c r="D285" s="42"/>
-      <c r="E285" s="43"/>
-      <c r="F285" s="44"/>
-    </row>
-    <row r="286" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="87"/>
-      <c r="B286" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D286" s="42"/>
-      <c r="E286" s="43"/>
-      <c r="F286" s="44"/>
-    </row>
-    <row r="287" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="87"/>
-      <c r="B287" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D287" s="42"/>
-      <c r="E287" s="43"/>
-      <c r="F287" s="44"/>
-    </row>
-    <row r="288" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="87"/>
-      <c r="B288" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D288" s="42"/>
-      <c r="E288" s="43"/>
-      <c r="F288" s="44"/>
-    </row>
-    <row r="289" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="87"/>
-      <c r="B289" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="42"/>
-      <c r="E289" s="43"/>
-      <c r="F289" s="44"/>
-    </row>
-    <row r="290" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="87"/>
-      <c r="B290" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="42"/>
-      <c r="E290" s="43"/>
-      <c r="F290" s="44"/>
-    </row>
-    <row r="291" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="87"/>
-      <c r="B291" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D291" s="42"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="44"/>
-    </row>
-    <row r="292" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="87"/>
-      <c r="B292" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D292" s="42"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="44"/>
-    </row>
-    <row r="293" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="87"/>
-      <c r="B293" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D293" s="42"/>
-      <c r="E293" s="43"/>
-      <c r="F293" s="44"/>
-    </row>
-    <row r="294" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="87"/>
-      <c r="B294" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="42"/>
-      <c r="E294" s="43"/>
-      <c r="F294" s="44"/>
-    </row>
-    <row r="295" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="87"/>
-      <c r="B295" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D295" s="42"/>
-      <c r="E295" s="43"/>
-      <c r="F295" s="44"/>
-    </row>
-    <row r="296" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="87"/>
-      <c r="B296" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="45"/>
-      <c r="E296" s="46"/>
-      <c r="F296" s="47"/>
-    </row>
-    <row r="297" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="74"/>
-      <c r="B297" s="11" t="s">
+      <c r="D313" s="103"/>
+      <c r="E313" s="104"/>
+      <c r="F313" s="105"/>
+    </row>
+    <row r="314" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="69"/>
+      <c r="B314" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C297" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="D297" s="79"/>
-      <c r="E297" s="79"/>
-      <c r="F297" s="80"/>
-    </row>
-    <row r="298" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="81"/>
-      <c r="B298" s="82"/>
-      <c r="C298" s="82"/>
-      <c r="D298" s="82"/>
-      <c r="E298" s="82"/>
-      <c r="F298" s="83"/>
-    </row>
-    <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="7" t="s">
+      <c r="C314" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44"/>
+      <c r="F314" s="45"/>
+    </row>
+    <row r="315" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="29"/>
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
+      <c r="D315" s="30"/>
+      <c r="E315" s="30"/>
+      <c r="F315" s="31"/>
+    </row>
+    <row r="316" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B316" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C299" s="8" t="s">
+      <c r="C316" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D299" s="48" t="s">
+      <c r="D316" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E299" s="49"/>
-      <c r="F299" s="50"/>
-    </row>
-    <row r="300" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C300" s="26"/>
-      <c r="D300" s="51"/>
-      <c r="E300" s="52"/>
-      <c r="F300" s="53"/>
-    </row>
-    <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="74"/>
-      <c r="B301" s="11" t="s">
+      <c r="E316" s="95"/>
+      <c r="F316" s="96"/>
+    </row>
+    <row r="317" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C317" s="15"/>
+      <c r="D317" s="97"/>
+      <c r="E317" s="98"/>
+      <c r="F317" s="99"/>
+    </row>
+    <row r="318" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="80"/>
+      <c r="B318" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C318" s="15"/>
+      <c r="D318" s="97"/>
+      <c r="E318" s="98"/>
+      <c r="F318" s="99"/>
+    </row>
+    <row r="319" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="80"/>
+      <c r="B319" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C319" s="26"/>
+      <c r="D319" s="97"/>
+      <c r="E319" s="98"/>
+      <c r="F319" s="99"/>
+    </row>
+    <row r="320" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="81"/>
+      <c r="B320" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C301" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="D301" s="85"/>
-      <c r="E301" s="85"/>
-      <c r="F301" s="86"/>
-    </row>
-    <row r="302" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="81"/>
-      <c r="B302" s="82"/>
-      <c r="C302" s="82"/>
-      <c r="D302" s="82"/>
-      <c r="E302" s="82"/>
-      <c r="F302" s="83"/>
-    </row>
-    <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C303" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D303" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E303" s="55"/>
-      <c r="F303" s="56"/>
-    </row>
-    <row r="304" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="57"/>
-      <c r="E304" s="58"/>
-      <c r="F304" s="59"/>
-    </row>
-    <row r="305" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="69"/>
-      <c r="B305" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="57"/>
-      <c r="E305" s="58"/>
-      <c r="F305" s="59"/>
-    </row>
-    <row r="306" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="69"/>
-      <c r="B306" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="57"/>
-      <c r="E306" s="58"/>
-      <c r="F306" s="59"/>
-    </row>
-    <row r="307" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="69"/>
-      <c r="B307" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="57"/>
-      <c r="E307" s="58"/>
-      <c r="F307" s="59"/>
-    </row>
-    <row r="308" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="69"/>
-      <c r="B308" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="57"/>
-      <c r="E308" s="58"/>
-      <c r="F308" s="59"/>
-    </row>
-    <row r="309" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="69"/>
-      <c r="B309" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D309" s="57"/>
-      <c r="E309" s="58"/>
-      <c r="F309" s="59"/>
-    </row>
-    <row r="310" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="69"/>
-      <c r="B310" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D310" s="57"/>
-      <c r="E310" s="58"/>
-      <c r="F310" s="59"/>
-    </row>
-    <row r="311" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="69"/>
-      <c r="B311" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C311" s="9"/>
-      <c r="D311" s="57"/>
-      <c r="E311" s="58"/>
-      <c r="F311" s="59"/>
-    </row>
-    <row r="312" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="69"/>
-      <c r="B312" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D312" s="57"/>
-      <c r="E312" s="58"/>
-      <c r="F312" s="59"/>
-    </row>
-    <row r="313" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="70"/>
-      <c r="B313" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C313" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="D313" s="79"/>
-      <c r="E313" s="79"/>
-      <c r="F313" s="80"/>
-    </row>
-    <row r="314" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="81"/>
-      <c r="B314" s="82"/>
-      <c r="C314" s="82"/>
-      <c r="D314" s="82"/>
-      <c r="E314" s="82"/>
-      <c r="F314" s="83"/>
-    </row>
-    <row r="315" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D315" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E315" s="49"/>
-      <c r="F315" s="50"/>
-    </row>
-    <row r="316" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B316" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C316" s="15"/>
-      <c r="D316" s="51"/>
-      <c r="E316" s="52"/>
-      <c r="F316" s="53"/>
-    </row>
-    <row r="317" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="28"/>
-      <c r="B317" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C317" s="15"/>
-      <c r="D317" s="51"/>
-      <c r="E317" s="52"/>
-      <c r="F317" s="53"/>
-    </row>
-    <row r="318" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="28"/>
-      <c r="B318" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C318" s="26"/>
-      <c r="D318" s="51"/>
-      <c r="E318" s="52"/>
-      <c r="F318" s="53"/>
-    </row>
-    <row r="319" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="29"/>
-      <c r="B319" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C319" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D319" s="61"/>
-      <c r="E319" s="61"/>
-      <c r="F319" s="62"/>
+      <c r="C320" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D320" s="73"/>
+      <c r="E320" s="73"/>
+      <c r="F320" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="C199:F199"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="A227:F227"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="C255:F255"/>
-    <mergeCell ref="A256:F256"/>
-    <mergeCell ref="C259:F259"/>
-    <mergeCell ref="D207:F209"/>
-    <mergeCell ref="D228:F230"/>
-    <mergeCell ref="D211:F225"/>
-    <mergeCell ref="D232:F254"/>
-    <mergeCell ref="D201:F205"/>
-    <mergeCell ref="A260:F260"/>
-    <mergeCell ref="A272:F272"/>
-    <mergeCell ref="C276:F276"/>
-    <mergeCell ref="C297:F297"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="C301:F301"/>
-    <mergeCell ref="A302:F302"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A262:A271"/>
-    <mergeCell ref="A274:A276"/>
-    <mergeCell ref="A279:A297"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="A304:A313"/>
-    <mergeCell ref="D278:F296"/>
-    <mergeCell ref="D261:F271"/>
-    <mergeCell ref="C319:F319"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A73:A88"/>
-    <mergeCell ref="A91:A106"/>
-    <mergeCell ref="A109:A116"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A125:A139"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A151:A199"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A212:A226"/>
-    <mergeCell ref="A229:A230"/>
-    <mergeCell ref="A233:A255"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="A316:A319"/>
+    <mergeCell ref="A317:A320"/>
     <mergeCell ref="D52:F57"/>
     <mergeCell ref="D47:F50"/>
     <mergeCell ref="D59:F63"/>
@@ -6040,12 +5988,93 @@
     <mergeCell ref="D108:F115"/>
     <mergeCell ref="D90:F105"/>
     <mergeCell ref="D141:F147"/>
-    <mergeCell ref="D150:F198"/>
-    <mergeCell ref="D315:F318"/>
-    <mergeCell ref="D299:F300"/>
-    <mergeCell ref="D273:F275"/>
-    <mergeCell ref="D257:F258"/>
-    <mergeCell ref="D303:F312"/>
+    <mergeCell ref="D150:F199"/>
+    <mergeCell ref="D316:F319"/>
+    <mergeCell ref="D300:F301"/>
+    <mergeCell ref="D274:F276"/>
+    <mergeCell ref="D258:F259"/>
+    <mergeCell ref="D304:F313"/>
+    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A73:A88"/>
+    <mergeCell ref="A91:A106"/>
+    <mergeCell ref="A109:A116"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A125:A139"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A151:A200"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A213:A227"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A234:A256"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="C277:F277"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="A299:F299"/>
+    <mergeCell ref="C302:F302"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="C314:F314"/>
+    <mergeCell ref="A315:F315"/>
+    <mergeCell ref="A263:A272"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="A280:A298"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="A305:A314"/>
+    <mergeCell ref="D279:F297"/>
+    <mergeCell ref="D262:F272"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="A257:F257"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="D208:F210"/>
+    <mergeCell ref="D229:F231"/>
+    <mergeCell ref="D212:F226"/>
+    <mergeCell ref="D233:F255"/>
+    <mergeCell ref="D202:F206"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.78680555555555598" header="0.5" footer="0.5"/>

--- a/autoChectWork/考勤情况总表.xlsx
+++ b/autoChectWork/考勤情况总表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\autoChectWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A935912-53DA-41EC-9ACF-8F83E347F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AF119-0C5A-4C6F-8FDB-7897D41FCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="1395" windowWidth="16395" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="4485" windowWidth="16395" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="418">
   <si>
     <t>2022年3月份考勤表</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>邢园园</t>
-  </si>
-  <si>
-    <t>叶  佳</t>
   </si>
   <si>
     <t>1、带*符号为在编人员     2、请假多的人有：       张成增6天                       李跃春5天                      高爱民5天                                          3、早退多的人有：                  曾显克8次</t>
@@ -960,34 +957,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假1.0天，公假2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.0天，公假1.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假2.0天，旷岗1.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>20.0天，事假5.0天，公假10.0天，旷岗5.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5天，事假1.5天，病假1.0天，旷岗3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>145.0天，事假12.0天，公假120.0天，借调12.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>65.0天，事假2.0天，公假7.0天，病假1.0天，年休10.0天，借调42.0天，旷岗3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假1.0天，公假1.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -996,22 +969,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>病假1.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.0天，公假12.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假3.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假2.0天，公假6.0天，旷岗2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假4.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1020,10 +981,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假3.0天，公假1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1036,10 +993,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假1.0天，公假4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假4.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1056,22 +1009,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10.0天，公假10.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.0天，事假2.0天，公假3.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>借调14.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>旷岗2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1080,86 +1017,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>病假15.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>丧假2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假1.0天，病假4.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>产假21.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>79.5天，事假5.5天，公假3.0天，病假23.0天，产假27.0天，借调14.0天，丧假2.0天，旷岗5.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假1.0天，旷岗6.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假5.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假0.5天，公假2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.0天，事假1.0天，公假15.0天，旷岗7.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假6.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假2.0天，病假1.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.0天，公假8.0天，病假1.0天，旷岗8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公休2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假3.0天，公假1.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.5天，公假1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假0.5天，旷岗2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.0天，公假3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.0天，事假8.0天，公假9.0天，病假1.0天，公休2.0天，旷岗8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假1.0天，旷岗2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.0天，事假1.0天，公假1.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假1.5天，旷岗1.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1176,78 +1045,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.0天，公假1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假5.0天，旷岗3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假1.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.0天，公假8.0天，旷岗7.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0天，旷岗2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假1.0天，公假1.0天，病假7.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假0.5天，公假8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.5天，事假3.5天，公假13.0天，病假7.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.5天，病假1.0天，旷岗3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假9.5天，公假3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假0.5天，公假7.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假0.5天，公假20.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假7.0天，旷岗1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.0天，公假8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假9.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假1.0天，借调12.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>借调21.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1260,22 +1065,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假0.5天，公假1.0天，病假3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.5天，事假8.5天，公假16.0天，病假3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假16.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>31.0天，事假16.0天，病假15.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>事假0.5天，病假2.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1288,50 +1081,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假2.0天，公假1.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假7.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>公假12.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假1.5天，公假2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>59.5天，事假8.5天，公假25.0天，病假2.0天，产假21.0天，丧假1.0天，旷岗2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.0天，事假5.0天，旷岗2.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假0.5天，公假3.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>公假9.0天，病假1.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>公假3.0天，病假3.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>公假5.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.0天，事假1.0天，公假10.0天，病假3.0天，旷岗4.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>产假6.0天，</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1340,11 +1097,403 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>事假1.0天，病假1.0天，婚假1.0天，</t>
-  </si>
-  <si>
-    <t>105.0天，事假31.0天，公假45.0天，病假9.0天，婚假1.0天，产假11.0天，旷岗8.0天，</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>事假3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，旷岗2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假10.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假21.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.0天，事假16.0天，病假21.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.0天，旷岗2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假7.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，病假1.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假7.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.0天，事假1.0天，公假10.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假6.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，病假8.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假1.0天，病假16.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，病假7.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0天，病假2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假14.0天，旷岗4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假3.0天，公假2.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假7.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假1.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假0.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假1.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.0天，事假8.5天，公假5.5天，旷岗5.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5天，公假1.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假5.0天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假1.5天，旷岗6.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0天，事假0.5天，公假10.5天，旷岗9.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，公假3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.5天，公假1.5天，病假10.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.0天，事假5.5天，公假11.5天，病假10.0天，旷岗2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假3.5天，公假0.5天，病假1.0天，旷岗5.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5天，事假4.0天，公假1.5天，病假1.0天，旷岗5.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假15.5天，公假1.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假5.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假10.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假6.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假5.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假6.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假6.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假6.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，借调20.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.5天，事假19.0天，公假86.5天，借调20.0天，旷岗2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假1.5天，病假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假3.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.5天，事假2.0天，公假7.5天，病假1.0天，年休10.0天，借调42.0天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假3.5天，公假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假0.5天，病假3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.0天，事假9.0天，公假14.0天，病假3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.5天，公假1.0天，病假2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假0.5天，病假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，公假0.5天，病假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假17.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.0天，公假2.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.5天，事假13.0天，公假29.5天，病假4.0天，丧假1.0天，旷岗4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.0天，公假0.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.5天，事假8.0天，公假1.5天，病假1.0天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假2.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，病假4.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假7.0天，公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，病假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假12.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假4.0天，公假6.0天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假4.0天，公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.5天，病假2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.5天，公假4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假5.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假1.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>154.0天，事假55.5天，公假46.5天，病假27.0天，产假11.0天，旷岗14.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.0天，公假1.0天，病假8.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假2.0天，病假3.0天，旷岗4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假3.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.0天，事假1.5天，公假6.5天，病假11.0天，旷岗4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假3.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，旷岗2.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.5天，事假3.0天，公假5.5天，旷岗8.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假3.5天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假1.0天，病假1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>115.0天，事假16.0天，公假6.0天，病假35.0天，产假27.0天，借调21.0天，丧假2.0天，旷岗8.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假2.0天，旷岗9.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，公假5.5天，旷岗4.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.5天，事假2.5天，公假16.0天，旷岗13.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假1.5天，病假1.0天，旷岗6.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.5天，公假15.5天，病假1.0天，旷岗10.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，病假1.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假1.5天，公假0.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，公假1.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假0.5天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假0.5天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假3.5天，公假2.5天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假2.5天，公假1.0天，旷岗1.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.0天，事假20.0天，公假12.0天，病假1.0天，公休2.0天，旷岗11.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公假1.5天，旷岗3.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0天，事假1.0天，公假2.0天，旷岗5.0天，</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0天，旷岗1.0天，</t>
   </si>
 </sst>
 </file>
@@ -1690,242 +1839,242 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2202,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,30 +2366,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -2252,218 +2401,220 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+        <v>280</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+        <v>280</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+        <v>336</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+        <v>337</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+        <v>338</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+        <v>339</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
+        <v>340</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
+        <v>337</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="C13" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+        <v>341</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+        <v>342</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+        <v>301</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
+        <v>337</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="C21" s="104" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -2475,45 +2626,45 @@
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
+        <v>302</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+        <v>303</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -2525,45 +2676,45 @@
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
+        <v>280</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
+        <v>304</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -2575,53 +2726,53 @@
       <c r="C31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="63" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="76"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+        <v>344</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -2633,55 +2784,57 @@
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
+      <c r="C37" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
+        <v>345</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="76"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
+        <v>346</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -2691,69 +2844,69 @@
         <v>2</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="63" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
+        <v>292</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="76"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
+        <v>347</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
+        <v>348</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="76"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="C45" s="104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="83"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -2765,35 +2918,35 @@
       <c r="C47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="86" t="s">
+      <c r="D47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
+        <v>296</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="39"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
@@ -2801,19 +2954,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
+        <v>305</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
@@ -2825,73 +2978,73 @@
       <c r="C52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="65" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="77"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="12"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="77"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="12"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="77"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="12"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="77"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
+        <v>344</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="100"/>
     </row>
     <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
@@ -2903,81 +3056,81 @@
       <c r="C59" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="86" t="s">
+      <c r="D59" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="65" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="39"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
+        <v>351</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
+        <v>306</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
+        <v>319</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="39"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
+      <c r="C64" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
     </row>
     <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
@@ -2989,65 +3142,69 @@
       <c r="C66" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="86" t="s">
+      <c r="D66" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="77" t="s">
+      <c r="A67" s="65" t="s">
         <v>55</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
+        <v>353</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="39"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
+      <c r="C68" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="39"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
+      <c r="C69" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="39"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
+      <c r="C70" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
@@ -3059,213 +3216,213 @@
       <c r="C72" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="60" t="s">
+      <c r="D72" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="65" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="55"/>
+        <v>328</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="39"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="55"/>
+        <v>328</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="44"/>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="39"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="55"/>
+        <v>328</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44"/>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="39"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="55"/>
+        <v>355</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="44"/>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="39"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="55"/>
+        <v>356</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="44"/>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="39"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="55"/>
+        <v>357</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="44"/>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="39"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="55"/>
+        <v>358</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="44"/>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="39"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80" s="53"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="55"/>
+        <v>359</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="44"/>
     </row>
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="39"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="55"/>
+        <v>360</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="39"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="55"/>
+        <v>361</v>
+      </c>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="44"/>
     </row>
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="39"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="55"/>
+        <v>362</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="44"/>
     </row>
     <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="39"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="55"/>
+        <v>326</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="44"/>
     </row>
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="39"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="55"/>
+        <v>363</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="39"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="55"/>
+        <v>314</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="44"/>
     </row>
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="39"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="59"/>
+        <v>360</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="47"/>
     </row>
     <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="39"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="42"/>
+      <c r="C88" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="103"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="31"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="82"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="83"/>
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
@@ -3277,205 +3434,205 @@
       <c r="C90" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E90" s="86"/>
-      <c r="F90" s="86"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="65" t="s">
         <v>77</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C91" s="9"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="39"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="9"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="39"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C93" s="9"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="39"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="86"/>
+        <v>307</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="39"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
+        <v>302</v>
+      </c>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="39"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="86"/>
+        <v>307</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="39"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="86"/>
+        <v>336</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="39"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="86"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
+        <v>337</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
     </row>
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="39"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D99" s="86"/>
-      <c r="E99" s="86"/>
-      <c r="F99" s="86"/>
+        <v>282</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="39"/>
+      <c r="A100" s="66"/>
       <c r="B100" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="86"/>
+        <v>337</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
     </row>
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="39"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
+        <v>365</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
     </row>
     <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="39"/>
+      <c r="A102" s="66"/>
       <c r="B102" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
+        <v>366</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
     </row>
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="39"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="9"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="39"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
+        <v>293</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
     </row>
     <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="39"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
+        <v>308</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="39"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
+      <c r="C106" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="83"/>
     </row>
     <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
@@ -3487,117 +3644,117 @@
       <c r="C108" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="60" t="s">
+      <c r="D108" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E108" s="61"/>
-      <c r="F108" s="62"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="41"/>
     </row>
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78" t="s">
+      <c r="A109" s="67" t="s">
         <v>94</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D109" s="53"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="55"/>
+        <v>368</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="44"/>
     </row>
     <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="78"/>
+      <c r="A110" s="67"/>
       <c r="B110" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D110" s="53"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="55"/>
+        <v>287</v>
+      </c>
+      <c r="D110" s="42"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="44"/>
     </row>
     <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
+      <c r="A111" s="67"/>
       <c r="B111" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" s="53"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="55"/>
+        <v>338</v>
+      </c>
+      <c r="D111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="44"/>
     </row>
     <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="78"/>
+      <c r="A112" s="67"/>
       <c r="B112" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="53"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="55"/>
+        <v>337</v>
+      </c>
+      <c r="D112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="44"/>
     </row>
     <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="53"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="55"/>
+        <v>337</v>
+      </c>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="44"/>
     </row>
     <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="78"/>
+      <c r="A114" s="67"/>
       <c r="B114" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D114" s="53"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="55"/>
+        <v>369</v>
+      </c>
+      <c r="D114" s="42"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="44"/>
     </row>
     <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="78"/>
+      <c r="A115" s="67"/>
       <c r="B115" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D115" s="57"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="59"/>
+        <v>295</v>
+      </c>
+      <c r="D115" s="45"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="47"/>
     </row>
     <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="78"/>
+      <c r="A116" s="67"/>
       <c r="B116" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="45"/>
+      <c r="C116" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="80"/>
     </row>
     <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="31"/>
+      <c r="A117" s="81"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="82"/>
+      <c r="D117" s="82"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="83"/>
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
@@ -3609,67 +3766,67 @@
       <c r="C118" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="86" t="s">
+      <c r="D118" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
     </row>
     <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="79" t="s">
+      <c r="A119" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D119" s="86"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
+        <v>310</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
     </row>
     <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="80"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C120" s="15"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
     </row>
     <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="80"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
+        <v>321</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
     </row>
     <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="81"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
+      <c r="C122" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
     </row>
     <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="31"/>
+      <c r="A123" s="81"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="83"/>
     </row>
     <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
@@ -3681,2320 +3838,2387 @@
       <c r="C124" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="60" t="s">
+      <c r="D124" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="E124" s="61"/>
-      <c r="F124" s="62"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="41"/>
     </row>
     <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="67" t="s">
+      <c r="A125" s="68" t="s">
         <v>107</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D125" s="53"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="55"/>
+        <v>371</v>
+      </c>
+      <c r="D125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="44"/>
     </row>
     <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="68"/>
+      <c r="A126" s="69"/>
       <c r="B126" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D126" s="53"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="55"/>
+        <v>339</v>
+      </c>
+      <c r="D126" s="42"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="44"/>
     </row>
     <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="68"/>
+      <c r="A127" s="69"/>
       <c r="B127" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D127" s="53"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="55"/>
+        <v>372</v>
+      </c>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="44"/>
     </row>
     <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="68"/>
+      <c r="A128" s="69"/>
       <c r="B128" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D128" s="53"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="55"/>
+        <v>337</v>
+      </c>
+      <c r="D128" s="42"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="44"/>
     </row>
     <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="68"/>
+      <c r="A129" s="69"/>
       <c r="B129" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D129" s="53"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="55"/>
+        <v>312</v>
+      </c>
+      <c r="D129" s="42"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="44"/>
     </row>
     <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="68"/>
+      <c r="A130" s="69"/>
       <c r="B130" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D130" s="53"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="55"/>
+        <v>313</v>
+      </c>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="44"/>
     </row>
     <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="68"/>
+      <c r="A131" s="69"/>
       <c r="B131" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="53"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="55"/>
+        <v>373</v>
+      </c>
+      <c r="D131" s="42"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="44"/>
     </row>
     <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="68"/>
+      <c r="A132" s="69"/>
       <c r="B132" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D132" s="53"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="55"/>
+        <v>374</v>
+      </c>
+      <c r="D132" s="42"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="44"/>
     </row>
     <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="68"/>
+      <c r="A133" s="69"/>
       <c r="B133" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D133" s="53"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="55"/>
+        <v>328</v>
+      </c>
+      <c r="D133" s="42"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="68"/>
+      <c r="A134" s="69"/>
       <c r="B134" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="53"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="55"/>
+        <v>284</v>
+      </c>
+      <c r="D134" s="42"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="44"/>
     </row>
     <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="68"/>
+      <c r="A135" s="69"/>
       <c r="B135" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="55"/>
+      <c r="C135" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135" s="42"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="44"/>
     </row>
     <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="68"/>
+      <c r="A136" s="69"/>
       <c r="B136" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D136" s="53"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="55"/>
+        <v>375</v>
+      </c>
+      <c r="D136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="44"/>
     </row>
     <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="68"/>
+      <c r="A137" s="69"/>
       <c r="B137" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D137" s="53"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="55"/>
+        <v>376</v>
+      </c>
+      <c r="D137" s="42"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="44"/>
     </row>
     <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="68"/>
-      <c r="B138" s="9" t="s">
+      <c r="A138" s="70"/>
+      <c r="B138" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D138" s="93"/>
+      <c r="E138" s="93"/>
+      <c r="F138" s="94"/>
+    </row>
+    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="81"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="82"/>
+      <c r="E139" s="82"/>
+      <c r="F139" s="83"/>
+    </row>
+    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D138" s="57"/>
-      <c r="E138" s="58"/>
-      <c r="F138" s="59"/>
-    </row>
-    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="69"/>
-      <c r="B139" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D139" s="48"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="49"/>
-    </row>
-    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="31"/>
     </row>
     <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="86" t="s">
+      <c r="A141" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="E141" s="86"/>
-      <c r="F141" s="86"/>
+      <c r="B141" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
     </row>
     <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="67" t="s">
-        <v>123</v>
-      </c>
+      <c r="A142" s="69"/>
       <c r="B142" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D142" s="86"/>
-      <c r="E142" s="86"/>
-      <c r="F142" s="86"/>
+        <v>373</v>
+      </c>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
     </row>
     <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="68"/>
+      <c r="A143" s="69"/>
       <c r="B143" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D143" s="86"/>
-      <c r="E143" s="86"/>
-      <c r="F143" s="86"/>
+        <v>318</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="68"/>
+      <c r="A144" s="69"/>
       <c r="B144" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="86"/>
+        <v>337</v>
+      </c>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
     </row>
     <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="68"/>
+      <c r="A145" s="69"/>
       <c r="B145" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="86"/>
-      <c r="E145" s="86"/>
-      <c r="F145" s="86"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
     </row>
     <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="68"/>
+      <c r="A146" s="69"/>
       <c r="B146" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="86"/>
-      <c r="E146" s="86"/>
-      <c r="F146" s="86"/>
+      <c r="C146" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
     </row>
     <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="68"/>
-      <c r="B147" s="9" t="s">
+      <c r="A147" s="70"/>
+      <c r="B147" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+    </row>
+    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="81"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="83"/>
+    </row>
+    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D147" s="86"/>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86"/>
-    </row>
-    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="69"/>
-      <c r="B148" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-    </row>
-    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="29"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="31"/>
+      <c r="E149" s="40"/>
+      <c r="F149" s="41"/>
     </row>
     <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>2</v>
+      <c r="A150" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="E150" s="61"/>
-      <c r="F150" s="62"/>
+        <v>324</v>
+      </c>
+      <c r="D150" s="42"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="44"/>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="79" t="s">
-        <v>131</v>
-      </c>
+      <c r="A151" s="28"/>
       <c r="B151" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D151" s="53"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="55"/>
+      <c r="C151" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" s="42"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="44"/>
     </row>
     <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="80"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D152" s="53"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="55"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="44"/>
     </row>
     <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="80"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="53"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="55"/>
+      <c r="C153" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="42"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="44"/>
     </row>
     <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="80"/>
+      <c r="A154" s="28"/>
       <c r="B154" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="53"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="55"/>
+      <c r="C154" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="44"/>
     </row>
     <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="80"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D155" s="53"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D155" s="42"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="44"/>
     </row>
     <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="80"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D156" s="53"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="55"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="44"/>
     </row>
     <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="80"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="55"/>
+      <c r="C157" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D157" s="42"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="44"/>
     </row>
     <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="80"/>
+      <c r="A158" s="28"/>
       <c r="B158" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D158" s="53"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="55"/>
+        <v>311</v>
+      </c>
+      <c r="D158" s="42"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="44"/>
     </row>
     <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="80"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D159" s="53"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="55"/>
+        <v>381</v>
+      </c>
+      <c r="D159" s="42"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="44"/>
     </row>
     <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="80"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D160" s="53"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="55"/>
+        <v>313</v>
+      </c>
+      <c r="D160" s="42"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="44"/>
     </row>
     <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="80"/>
+      <c r="A161" s="28"/>
       <c r="B161" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D161" s="53"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="55"/>
+        <v>382</v>
+      </c>
+      <c r="D161" s="42"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="44"/>
     </row>
     <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="80"/>
+      <c r="A162" s="28"/>
       <c r="B162" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D162" s="53"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="55"/>
+        <v>341</v>
+      </c>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="44"/>
     </row>
     <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="80"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="53"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="55"/>
+        <v>383</v>
+      </c>
+      <c r="D163" s="42"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="44"/>
     </row>
     <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="80"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D164" s="53"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="55"/>
+        <v>384</v>
+      </c>
+      <c r="D164" s="42"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="44"/>
     </row>
     <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="80"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D165" s="53"/>
-      <c r="E165" s="56"/>
-      <c r="F165" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D165" s="42"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="44"/>
     </row>
     <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="80"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="55"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="44"/>
     </row>
     <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="80"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="53"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="55"/>
+      <c r="C167" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D167" s="42"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="44"/>
     </row>
     <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="80"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D168" s="53"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="55"/>
+        <v>315</v>
+      </c>
+      <c r="D168" s="42"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="44"/>
     </row>
     <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="80"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D169" s="53"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D169" s="42"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="44"/>
     </row>
     <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="80"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D170" s="53"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="55"/>
+        <v>335</v>
+      </c>
+      <c r="D170" s="42"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="44"/>
     </row>
     <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="80"/>
+      <c r="A171" s="28"/>
       <c r="B171" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="56"/>
-      <c r="F171" s="55"/>
+      <c r="C171" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D171" s="42"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="44"/>
     </row>
     <row r="172" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="80"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D172" s="53"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="55"/>
+        <v>386</v>
+      </c>
+      <c r="D172" s="42"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="44"/>
     </row>
     <row r="173" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="80"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D173" s="53"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="55"/>
+        <v>288</v>
+      </c>
+      <c r="D173" s="42"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="44"/>
     </row>
     <row r="174" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="80"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C174" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D174" s="53"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="55"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="44"/>
     </row>
     <row r="175" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="80"/>
+      <c r="A175" s="28"/>
       <c r="B175" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="53"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="55"/>
+      <c r="C175" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D175" s="42"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="44"/>
     </row>
     <row r="176" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="80"/>
+      <c r="A176" s="28"/>
       <c r="B176" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D176" s="53"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D176" s="42"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="44"/>
     </row>
     <row r="177" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="80"/>
+      <c r="A177" s="28"/>
       <c r="B177" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D177" s="53"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D177" s="42"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="44"/>
     </row>
     <row r="178" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="80"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="55"/>
+      <c r="C178" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" s="42"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="44"/>
     </row>
     <row r="179" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="80"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="55"/>
+        <v>289</v>
+      </c>
+      <c r="D179" s="42"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="44"/>
     </row>
     <row r="180" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="80"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D180" s="42"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="44"/>
+    </row>
+    <row r="181" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="28"/>
+      <c r="B181" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C180" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D180" s="53"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="55"/>
-    </row>
-    <row r="181" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="80"/>
-      <c r="B181" s="9" t="s">
-        <v>378</v>
-      </c>
       <c r="C181" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D181" s="53"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="55"/>
+        <v>325</v>
+      </c>
+      <c r="D181" s="42"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="44"/>
     </row>
     <row r="182" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="80"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D182" s="53"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="55"/>
+        <v>387</v>
+      </c>
+      <c r="D182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="44"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="80"/>
+      <c r="A183" s="28"/>
       <c r="B183" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D183" s="53"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="55"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="44"/>
     </row>
     <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="80"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C184" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D184" s="53"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="55"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="44"/>
     </row>
     <row r="185" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="80"/>
+      <c r="A185" s="28"/>
       <c r="B185" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="56"/>
-      <c r="F185" s="55"/>
+      <c r="C185" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D185" s="42"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="44"/>
     </row>
     <row r="186" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="80"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C186" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D186" s="53"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="55"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="44"/>
     </row>
     <row r="187" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="80"/>
+      <c r="A187" s="28"/>
       <c r="B187" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="53"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="55"/>
+      <c r="C187" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D187" s="42"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="44"/>
     </row>
     <row r="188" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="80"/>
+      <c r="A188" s="28"/>
       <c r="B188" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="55"/>
+      <c r="C188" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" s="42"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="44"/>
     </row>
     <row r="189" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="80"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D189" s="53"/>
-      <c r="E189" s="56"/>
-      <c r="F189" s="55"/>
+        <v>389</v>
+      </c>
+      <c r="D189" s="42"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="44"/>
     </row>
     <row r="190" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="80"/>
+      <c r="A190" s="28"/>
       <c r="B190" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D190" s="53"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="55"/>
+        <v>293</v>
+      </c>
+      <c r="D190" s="42"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="44"/>
     </row>
     <row r="191" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="80"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D191" s="53"/>
-      <c r="E191" s="56"/>
-      <c r="F191" s="55"/>
+        <v>290</v>
+      </c>
+      <c r="D191" s="42"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="44"/>
     </row>
     <row r="192" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="80"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D192" s="53"/>
-      <c r="E192" s="56"/>
-      <c r="F192" s="55"/>
+        <v>390</v>
+      </c>
+      <c r="D192" s="42"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="44"/>
     </row>
     <row r="193" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="80"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D193" s="53"/>
-      <c r="E193" s="56"/>
-      <c r="F193" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D193" s="42"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="44"/>
     </row>
     <row r="194" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="80"/>
+      <c r="A194" s="28"/>
       <c r="B194" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D194" s="53"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="55"/>
+        <v>294</v>
+      </c>
+      <c r="D194" s="42"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="44"/>
     </row>
     <row r="195" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="80"/>
+      <c r="A195" s="28"/>
       <c r="B195" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D195" s="53"/>
-      <c r="E195" s="56"/>
-      <c r="F195" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D195" s="42"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="44"/>
     </row>
     <row r="196" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="80"/>
+      <c r="A196" s="28"/>
       <c r="B196" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="56"/>
-      <c r="F196" s="55"/>
+      <c r="C196" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D196" s="42"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="44"/>
     </row>
     <row r="197" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="80"/>
+      <c r="A197" s="28"/>
       <c r="B197" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D197" s="53"/>
-      <c r="E197" s="56"/>
-      <c r="F197" s="55"/>
+        <v>289</v>
+      </c>
+      <c r="D197" s="42"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="44"/>
     </row>
     <row r="198" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="80"/>
+      <c r="A198" s="28"/>
       <c r="B198" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D198" s="53"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="55"/>
+        <v>289</v>
+      </c>
+      <c r="D198" s="45"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="47"/>
     </row>
     <row r="199" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="80"/>
-      <c r="B199" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D199" s="57"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="59"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
+      <c r="F199" s="80"/>
     </row>
     <row r="200" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="81"/>
-      <c r="B200" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="D200" s="44"/>
-      <c r="E200" s="44"/>
-      <c r="F200" s="45"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="83"/>
     </row>
     <row r="201" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="29"/>
-      <c r="B201" s="30"/>
-      <c r="C201" s="30"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="31"/>
+      <c r="A201" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E201" s="95"/>
+      <c r="F201" s="95"/>
     </row>
     <row r="202" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E202" s="63"/>
-      <c r="F202" s="63"/>
+      <c r="A202" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
+      <c r="F202" s="95"/>
     </row>
     <row r="203" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="82" t="s">
-        <v>180</v>
-      </c>
+      <c r="A203" s="72"/>
       <c r="B203" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
-      <c r="F203" s="63"/>
+        <v>393</v>
+      </c>
+      <c r="D203" s="95"/>
+      <c r="E203" s="95"/>
+      <c r="F203" s="95"/>
     </row>
     <row r="204" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="83"/>
+      <c r="A204" s="72"/>
       <c r="B204" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
+        <v>394</v>
+      </c>
+      <c r="D204" s="95"/>
+      <c r="E204" s="95"/>
+      <c r="F204" s="95"/>
     </row>
     <row r="205" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="83"/>
-      <c r="B205" s="20" t="s">
+      <c r="A205" s="73"/>
+      <c r="B205" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D205" s="95"/>
+      <c r="E205" s="95"/>
+      <c r="F205" s="95"/>
+    </row>
+    <row r="206" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="89"/>
+      <c r="B206" s="90"/>
+      <c r="C206" s="90"/>
+      <c r="D206" s="90"/>
+      <c r="E206" s="90"/>
+      <c r="F206" s="91"/>
+    </row>
+    <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="88"/>
+      <c r="F207" s="44"/>
+    </row>
+    <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C205" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="D205" s="63"/>
-      <c r="E205" s="63"/>
-      <c r="F205" s="63"/>
-    </row>
-    <row r="206" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="84"/>
-      <c r="B206" s="21" t="s">
+      <c r="B208" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D208" s="42"/>
+      <c r="E208" s="43"/>
+      <c r="F208" s="44"/>
+    </row>
+    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="29"/>
+      <c r="B209" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C206" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D206" s="63"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-    </row>
-    <row r="207" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="50"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="51"/>
-      <c r="D207" s="51"/>
-      <c r="E207" s="51"/>
-      <c r="F207" s="52"/>
-    </row>
-    <row r="208" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="22" t="s">
+      <c r="C209" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D209" s="45"/>
+      <c r="E209" s="46"/>
+      <c r="F209" s="47"/>
+    </row>
+    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="75"/>
+      <c r="B210" s="76"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="76"/>
+      <c r="F210" s="77"/>
+    </row>
+    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B211" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="23" t="s">
+      <c r="C211" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D208" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E208" s="54"/>
-      <c r="F208" s="55"/>
-    </row>
-    <row r="209" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B209" s="15" t="s">
+      <c r="D211" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C209" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D209" s="53"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="55"/>
-    </row>
-    <row r="210" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="81"/>
-      <c r="B210" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D210" s="57"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="59"/>
-    </row>
-    <row r="211" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="32"/>
-      <c r="B211" s="33"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="34"/>
+      <c r="E211" s="40"/>
+      <c r="F211" s="41"/>
     </row>
     <row r="212" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="60" t="s">
+      <c r="A212" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="E212" s="61"/>
-      <c r="F212" s="62"/>
+      <c r="B212" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D212" s="42"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="44"/>
     </row>
     <row r="213" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="67" t="s">
-        <v>187</v>
-      </c>
+      <c r="A213" s="69"/>
       <c r="B213" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D213" s="53"/>
-      <c r="E213" s="56"/>
-      <c r="F213" s="55"/>
+        <v>337</v>
+      </c>
+      <c r="D213" s="42"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="44"/>
     </row>
     <row r="214" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="68"/>
+      <c r="A214" s="69"/>
       <c r="B214" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C214" s="9"/>
-      <c r="D214" s="53"/>
-      <c r="E214" s="56"/>
-      <c r="F214" s="55"/>
+      <c r="D214" s="42"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="44"/>
     </row>
     <row r="215" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="68"/>
+      <c r="A215" s="69"/>
       <c r="B215" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="53"/>
-      <c r="E215" s="56"/>
-      <c r="F215" s="55"/>
+      <c r="C215" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D215" s="42"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="44"/>
     </row>
     <row r="216" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="68"/>
+      <c r="A216" s="69"/>
       <c r="B216" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D216" s="53"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="55"/>
+        <v>280</v>
+      </c>
+      <c r="D216" s="42"/>
+      <c r="E216" s="43"/>
+      <c r="F216" s="44"/>
     </row>
     <row r="217" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="68"/>
+      <c r="A217" s="69"/>
       <c r="B217" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="53"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="55"/>
+      <c r="C217" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D217" s="42"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="44"/>
     </row>
     <row r="218" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="68"/>
+      <c r="A218" s="69"/>
       <c r="B218" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D218" s="53"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="55"/>
+        <v>296</v>
+      </c>
+      <c r="D218" s="42"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="44"/>
     </row>
     <row r="219" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="68"/>
+      <c r="A219" s="69"/>
       <c r="B219" s="9" t="s">
         <v>194</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D219" s="53"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="55"/>
+        <v>337</v>
+      </c>
+      <c r="D219" s="42"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="44"/>
     </row>
     <row r="220" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="68"/>
+      <c r="A220" s="69"/>
       <c r="B220" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="55"/>
+      <c r="C220" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D220" s="42"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="44"/>
     </row>
     <row r="221" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="68"/>
+      <c r="A221" s="69"/>
       <c r="B221" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D221" s="53"/>
-      <c r="E221" s="56"/>
-      <c r="F221" s="55"/>
+        <v>340</v>
+      </c>
+      <c r="D221" s="42"/>
+      <c r="E221" s="43"/>
+      <c r="F221" s="44"/>
     </row>
     <row r="222" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="68"/>
+      <c r="A222" s="69"/>
       <c r="B222" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D222" s="53"/>
-      <c r="E222" s="56"/>
-      <c r="F222" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D222" s="42"/>
+      <c r="E222" s="43"/>
+      <c r="F222" s="44"/>
     </row>
     <row r="223" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="68"/>
+      <c r="A223" s="69"/>
       <c r="B223" s="9" t="s">
         <v>198</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D223" s="53"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="55"/>
+        <v>302</v>
+      </c>
+      <c r="D223" s="42"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="44"/>
     </row>
     <row r="224" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="68"/>
+      <c r="A224" s="69"/>
       <c r="B224" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C224" s="9"/>
-      <c r="D224" s="53"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="55"/>
+      <c r="D224" s="42"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="44"/>
     </row>
     <row r="225" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="68"/>
+      <c r="A225" s="69"/>
       <c r="B225" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C225" s="9"/>
-      <c r="D225" s="53"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="55"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="44"/>
     </row>
     <row r="226" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="68"/>
-      <c r="B226" s="9" t="s">
+      <c r="A226" s="70"/>
+      <c r="B226" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="D226" s="79"/>
+      <c r="E226" s="79"/>
+      <c r="F226" s="80"/>
+    </row>
+    <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="75"/>
+      <c r="B227" s="76"/>
+      <c r="C227" s="76"/>
+      <c r="D227" s="76"/>
+      <c r="E227" s="76"/>
+      <c r="F227" s="77"/>
+    </row>
+    <row r="228" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E228" s="40"/>
+      <c r="F228" s="41"/>
+    </row>
+    <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="53"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="55"/>
-    </row>
-    <row r="227" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="69"/>
-      <c r="B227" s="11" t="s">
+      <c r="B229" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="42"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="44"/>
+    </row>
+    <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="74"/>
+      <c r="B230" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C227" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="45"/>
-    </row>
-    <row r="228" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="32"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="34"/>
-    </row>
-    <row r="229" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="7" t="s">
+      <c r="C230" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D230" s="45"/>
+      <c r="E230" s="46"/>
+      <c r="F230" s="47"/>
+    </row>
+    <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="81"/>
+      <c r="B231" s="82"/>
+      <c r="C231" s="82"/>
+      <c r="D231" s="82"/>
+      <c r="E231" s="82"/>
+      <c r="F231" s="83"/>
+    </row>
+    <row r="232" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B232" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C232" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D229" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E229" s="61"/>
-      <c r="F229" s="62"/>
-    </row>
-    <row r="230" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="B230" s="9" t="s">
+      <c r="D232" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="53"/>
-      <c r="E230" s="56"/>
-      <c r="F230" s="55"/>
-    </row>
-    <row r="231" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="71"/>
-      <c r="B231" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D231" s="57"/>
-      <c r="E231" s="58"/>
-      <c r="F231" s="59"/>
-    </row>
-    <row r="232" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="29"/>
-      <c r="B232" s="30"/>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="30"/>
-      <c r="F232" s="31"/>
+      <c r="E232" s="40"/>
+      <c r="F232" s="41"/>
     </row>
     <row r="233" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D233" s="60" t="s">
+      <c r="A233" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E233" s="61"/>
-      <c r="F233" s="62"/>
+      <c r="B233" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D233" s="42"/>
+      <c r="E233" s="43"/>
+      <c r="F233" s="44"/>
     </row>
     <row r="234" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="79" t="s">
-        <v>205</v>
-      </c>
+      <c r="A234" s="28"/>
       <c r="B234" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C234" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D234" s="53"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="55"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="42"/>
+      <c r="E234" s="43"/>
+      <c r="F234" s="44"/>
     </row>
     <row r="235" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="80"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C235" s="15"/>
-      <c r="D235" s="53"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="55"/>
+      <c r="C235" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D235" s="42"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="44"/>
     </row>
     <row r="236" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="80"/>
+      <c r="A236" s="28"/>
       <c r="B236" s="15" t="s">
         <v>208</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D236" s="53"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="55"/>
+        <v>318</v>
+      </c>
+      <c r="D236" s="42"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="44"/>
     </row>
     <row r="237" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A237" s="80"/>
+      <c r="A237" s="28"/>
       <c r="B237" s="15" t="s">
         <v>209</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D237" s="53"/>
-      <c r="E237" s="56"/>
-      <c r="F237" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D237" s="42"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="44"/>
     </row>
     <row r="238" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A238" s="80"/>
+      <c r="A238" s="28"/>
       <c r="B238" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C238" s="15"/>
-      <c r="D238" s="53"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="55"/>
+      <c r="C238" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D238" s="42"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="44"/>
     </row>
     <row r="239" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="80"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="15" t="s">
         <v>211</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D239" s="53"/>
-      <c r="E239" s="56"/>
-      <c r="F239" s="55"/>
+        <v>341</v>
+      </c>
+      <c r="D239" s="42"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="44"/>
     </row>
     <row r="240" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="80"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="15" t="s">
         <v>212</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D240" s="53"/>
-      <c r="E240" s="56"/>
-      <c r="F240" s="55"/>
+        <v>330</v>
+      </c>
+      <c r="D240" s="42"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="44"/>
     </row>
     <row r="241" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A241" s="80"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C241" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D241" s="53"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="55"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="44"/>
     </row>
     <row r="242" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A242" s="80"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C242" s="15"/>
-      <c r="D242" s="53"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="55"/>
+      <c r="C242" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D242" s="42"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="44"/>
     </row>
     <row r="243" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="80"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C243" s="15"/>
-      <c r="D243" s="53"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="55"/>
+      <c r="C243" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D243" s="42"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="44"/>
     </row>
     <row r="244" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="80"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D244" s="53"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="55"/>
+        <v>399</v>
+      </c>
+      <c r="D244" s="42"/>
+      <c r="E244" s="43"/>
+      <c r="F244" s="44"/>
     </row>
     <row r="245" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="80"/>
+      <c r="A245" s="28"/>
       <c r="B245" s="15" t="s">
         <v>217</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D245" s="53"/>
-      <c r="E245" s="56"/>
-      <c r="F245" s="55"/>
+        <v>331</v>
+      </c>
+      <c r="D245" s="42"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="44"/>
     </row>
     <row r="246" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="80"/>
+      <c r="A246" s="28"/>
       <c r="B246" s="15" t="s">
         <v>218</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D246" s="53"/>
-      <c r="E246" s="56"/>
-      <c r="F246" s="55"/>
+        <v>340</v>
+      </c>
+      <c r="D246" s="42"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="44"/>
     </row>
     <row r="247" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A247" s="80"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="15" t="s">
         <v>219</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D247" s="53"/>
-      <c r="E247" s="56"/>
-      <c r="F247" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D247" s="42"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="44"/>
     </row>
     <row r="248" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="80"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D248" s="53"/>
-      <c r="E248" s="56"/>
-      <c r="F248" s="55"/>
+        <v>400</v>
+      </c>
+      <c r="D248" s="42"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="44"/>
     </row>
     <row r="249" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="80"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="15" t="s">
         <v>221</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D249" s="53"/>
-      <c r="E249" s="56"/>
-      <c r="F249" s="55"/>
+        <v>280</v>
+      </c>
+      <c r="D249" s="42"/>
+      <c r="E249" s="43"/>
+      <c r="F249" s="44"/>
     </row>
     <row r="250" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A250" s="80"/>
+      <c r="A250" s="28"/>
       <c r="B250" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D250" s="53"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="55"/>
+        <v>387</v>
+      </c>
+      <c r="D250" s="42"/>
+      <c r="E250" s="43"/>
+      <c r="F250" s="44"/>
     </row>
     <row r="251" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="80"/>
+      <c r="A251" s="28"/>
       <c r="B251" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D251" s="53"/>
-      <c r="E251" s="56"/>
-      <c r="F251" s="55"/>
+        <v>316</v>
+      </c>
+      <c r="D251" s="42"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="44"/>
     </row>
     <row r="252" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A252" s="80"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="15" t="s">
         <v>224</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D252" s="53"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="55"/>
+        <v>294</v>
+      </c>
+      <c r="D252" s="42"/>
+      <c r="E252" s="43"/>
+      <c r="F252" s="44"/>
     </row>
     <row r="253" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A253" s="80"/>
+      <c r="A253" s="28"/>
       <c r="B253" s="15" t="s">
         <v>225</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="D253" s="53"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="55"/>
+        <v>299</v>
+      </c>
+      <c r="D253" s="42"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="44"/>
     </row>
     <row r="254" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="80"/>
+      <c r="A254" s="28"/>
       <c r="B254" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D254" s="53"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="55"/>
+        <v>293</v>
+      </c>
+      <c r="D254" s="42"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="44"/>
     </row>
     <row r="255" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="80"/>
-      <c r="B255" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C255" s="15"/>
-      <c r="D255" s="53"/>
-      <c r="E255" s="56"/>
-      <c r="F255" s="55"/>
+      <c r="A255" s="29"/>
+      <c r="B255" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="D255" s="93"/>
+      <c r="E255" s="93"/>
+      <c r="F255" s="94"/>
     </row>
     <row r="256" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="81"/>
-      <c r="B256" s="24" t="s">
+      <c r="B256" s="82"/>
+      <c r="C256" s="82"/>
+      <c r="D256" s="82"/>
+      <c r="E256" s="82"/>
+      <c r="F256" s="83"/>
+    </row>
+    <row r="257" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D257" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257" s="49"/>
+      <c r="F257" s="50"/>
+    </row>
+    <row r="258" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D258" s="51"/>
+      <c r="E258" s="52"/>
+      <c r="F258" s="53"/>
+    </row>
+    <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="70"/>
+      <c r="B259" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C256" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="D256" s="48"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="49"/>
-    </row>
-    <row r="257" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="29"/>
-      <c r="B257" s="30"/>
-      <c r="C257" s="30"/>
-      <c r="D257" s="30"/>
-      <c r="E257" s="30"/>
-      <c r="F257" s="31"/>
-    </row>
-    <row r="258" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="7" t="s">
+      <c r="C259" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D259" s="76"/>
+      <c r="E259" s="76"/>
+      <c r="F259" s="77"/>
+    </row>
+    <row r="260" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="75"/>
+      <c r="B260" s="76"/>
+      <c r="C260" s="76"/>
+      <c r="D260" s="76"/>
+      <c r="E260" s="76"/>
+      <c r="F260" s="77"/>
+    </row>
+    <row r="261" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B261" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C261" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D258" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E258" s="95"/>
-      <c r="F258" s="96"/>
-    </row>
-    <row r="259" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B259" s="9" t="s">
+      <c r="D261" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C259" s="25"/>
-      <c r="D259" s="97"/>
-      <c r="E259" s="98"/>
-      <c r="F259" s="99"/>
-    </row>
-    <row r="260" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="69"/>
-      <c r="B260" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C260" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="34"/>
-    </row>
-    <row r="261" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="32"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="34"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="41"/>
     </row>
     <row r="262" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D262" s="60" t="s">
+      <c r="A262" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="E262" s="61"/>
-      <c r="F262" s="62"/>
+      <c r="B262" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C262" s="9"/>
+      <c r="D262" s="42"/>
+      <c r="E262" s="88"/>
+      <c r="F262" s="44"/>
     </row>
     <row r="263" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="67" t="s">
-        <v>231</v>
-      </c>
+      <c r="A263" s="69"/>
       <c r="B263" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C263" s="9"/>
-      <c r="D263" s="53"/>
-      <c r="E263" s="54"/>
-      <c r="F263" s="55"/>
+      <c r="D263" s="42"/>
+      <c r="E263" s="88"/>
+      <c r="F263" s="44"/>
     </row>
     <row r="264" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="68"/>
+      <c r="A264" s="69"/>
       <c r="B264" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="53"/>
-      <c r="E264" s="54"/>
-      <c r="F264" s="55"/>
+      <c r="C264" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D264" s="42"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="44"/>
     </row>
     <row r="265" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="68"/>
+      <c r="A265" s="69"/>
       <c r="B265" s="9" t="s">
         <v>234</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D265" s="53"/>
-      <c r="E265" s="54"/>
-      <c r="F265" s="55"/>
+        <v>286</v>
+      </c>
+      <c r="D265" s="42"/>
+      <c r="E265" s="88"/>
+      <c r="F265" s="44"/>
     </row>
     <row r="266" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="68"/>
+      <c r="A266" s="69"/>
       <c r="B266" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D266" s="53"/>
-      <c r="E266" s="54"/>
-      <c r="F266" s="55"/>
+        <v>403</v>
+      </c>
+      <c r="D266" s="42"/>
+      <c r="E266" s="88"/>
+      <c r="F266" s="44"/>
     </row>
     <row r="267" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="68"/>
+      <c r="A267" s="69"/>
       <c r="B267" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D267" s="53"/>
-      <c r="E267" s="54"/>
-      <c r="F267" s="55"/>
+        <v>396</v>
+      </c>
+      <c r="D267" s="42"/>
+      <c r="E267" s="88"/>
+      <c r="F267" s="44"/>
     </row>
     <row r="268" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="68"/>
+      <c r="A268" s="69"/>
       <c r="B268" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D268" s="53"/>
-      <c r="E268" s="54"/>
-      <c r="F268" s="55"/>
+        <v>281</v>
+      </c>
+      <c r="D268" s="42"/>
+      <c r="E268" s="88"/>
+      <c r="F268" s="44"/>
     </row>
     <row r="269" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="68"/>
+      <c r="A269" s="69"/>
       <c r="B269" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C269" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D269" s="53"/>
-      <c r="E269" s="54"/>
-      <c r="F269" s="55"/>
+      <c r="C269" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D269" s="42"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="44"/>
     </row>
     <row r="270" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="68"/>
+      <c r="A270" s="69"/>
       <c r="B270" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C270" s="25"/>
-      <c r="D270" s="53"/>
-      <c r="E270" s="54"/>
-      <c r="F270" s="55"/>
+      <c r="C270" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D270" s="42"/>
+      <c r="E270" s="88"/>
+      <c r="F270" s="44"/>
     </row>
     <row r="271" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="68"/>
-      <c r="B271" s="9" t="s">
+      <c r="A271" s="70"/>
+      <c r="B271" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D271" s="45"/>
+      <c r="E271" s="46"/>
+      <c r="F271" s="47"/>
+    </row>
+    <row r="272" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="75"/>
+      <c r="B272" s="76"/>
+      <c r="C272" s="76"/>
+      <c r="D272" s="76"/>
+      <c r="E272" s="76"/>
+      <c r="F272" s="77"/>
+    </row>
+    <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" s="49"/>
+      <c r="F273" s="50"/>
+    </row>
+    <row r="274" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C271" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D271" s="53"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="55"/>
-    </row>
-    <row r="272" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="69"/>
-      <c r="B272" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D272" s="57"/>
-      <c r="E272" s="58"/>
-      <c r="F272" s="59"/>
-    </row>
-    <row r="273" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="32"/>
-      <c r="B273" s="33"/>
-      <c r="C273" s="33"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="33"/>
-      <c r="F273" s="34"/>
-    </row>
-    <row r="274" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D274" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="E274" s="95"/>
-      <c r="F274" s="96"/>
+      <c r="B274" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D274" s="51"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="53"/>
     </row>
     <row r="275" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="67" t="s">
-        <v>241</v>
-      </c>
+      <c r="A275" s="69"/>
       <c r="B275" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C275" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D275" s="97"/>
-      <c r="E275" s="98"/>
-      <c r="F275" s="99"/>
+      <c r="C275" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D275" s="51"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="53"/>
     </row>
     <row r="276" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="68"/>
-      <c r="B276" s="9" t="s">
+      <c r="A276" s="70"/>
+      <c r="B276" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="D276" s="79"/>
+      <c r="E276" s="79"/>
+      <c r="F276" s="80"/>
+    </row>
+    <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C276" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D276" s="97"/>
-      <c r="E276" s="98"/>
-      <c r="F276" s="99"/>
-    </row>
-    <row r="277" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="69"/>
-      <c r="B277" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C277" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="D277" s="44"/>
-      <c r="E277" s="44"/>
-      <c r="F277" s="45"/>
-    </row>
-    <row r="278" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E278" s="40"/>
+      <c r="F278" s="41"/>
+    </row>
     <row r="279" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A279" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D279" s="60" t="s">
+      <c r="A279" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="E279" s="61"/>
-      <c r="F279" s="62"/>
+      <c r="B279" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D279" s="42"/>
+      <c r="E279" s="43"/>
+      <c r="F279" s="44"/>
     </row>
     <row r="280" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A280" s="67" t="s">
-        <v>245</v>
-      </c>
+      <c r="A280" s="87"/>
       <c r="B280" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D280" s="53"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="55"/>
+        <v>407</v>
+      </c>
+      <c r="D280" s="42"/>
+      <c r="E280" s="43"/>
+      <c r="F280" s="44"/>
     </row>
     <row r="281" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="70"/>
+      <c r="A281" s="87"/>
       <c r="B281" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D281" s="53"/>
-      <c r="E281" s="56"/>
-      <c r="F281" s="55"/>
+        <v>300</v>
+      </c>
+      <c r="D281" s="42"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="44"/>
     </row>
     <row r="282" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="70"/>
+      <c r="A282" s="87"/>
       <c r="B282" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D282" s="53"/>
-      <c r="E282" s="56"/>
-      <c r="F282" s="55"/>
+        <v>334</v>
+      </c>
+      <c r="D282" s="42"/>
+      <c r="E282" s="43"/>
+      <c r="F282" s="44"/>
     </row>
     <row r="283" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="70"/>
+      <c r="A283" s="87"/>
       <c r="B283" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D283" s="53"/>
-      <c r="E283" s="56"/>
-      <c r="F283" s="55"/>
+        <v>280</v>
+      </c>
+      <c r="D283" s="42"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="44"/>
     </row>
     <row r="284" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="70"/>
+      <c r="A284" s="87"/>
       <c r="B284" s="9" t="s">
         <v>250</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D284" s="53"/>
-      <c r="E284" s="56"/>
-      <c r="F284" s="55"/>
+        <v>390</v>
+      </c>
+      <c r="D284" s="42"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="44"/>
     </row>
     <row r="285" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="70"/>
+      <c r="A285" s="87"/>
       <c r="B285" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D285" s="53"/>
-      <c r="E285" s="56"/>
-      <c r="F285" s="55"/>
+        <v>340</v>
+      </c>
+      <c r="D285" s="42"/>
+      <c r="E285" s="43"/>
+      <c r="F285" s="44"/>
     </row>
     <row r="286" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="70"/>
+      <c r="A286" s="87"/>
       <c r="B286" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C286" s="9"/>
-      <c r="D286" s="53"/>
-      <c r="E286" s="56"/>
-      <c r="F286" s="55"/>
+      <c r="C286" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D286" s="42"/>
+      <c r="E286" s="43"/>
+      <c r="F286" s="44"/>
     </row>
     <row r="287" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="70"/>
+      <c r="A287" s="87"/>
       <c r="B287" s="9" t="s">
         <v>253</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D287" s="53"/>
-      <c r="E287" s="56"/>
-      <c r="F287" s="55"/>
+        <v>409</v>
+      </c>
+      <c r="D287" s="42"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="44"/>
     </row>
     <row r="288" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="70"/>
+      <c r="A288" s="87"/>
       <c r="B288" s="9" t="s">
         <v>254</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D288" s="53"/>
-      <c r="E288" s="56"/>
-      <c r="F288" s="55"/>
+        <v>284</v>
+      </c>
+      <c r="D288" s="42"/>
+      <c r="E288" s="43"/>
+      <c r="F288" s="44"/>
     </row>
     <row r="289" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="70"/>
+      <c r="A289" s="87"/>
       <c r="B289" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C289" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D289" s="53"/>
-      <c r="E289" s="56"/>
-      <c r="F289" s="55"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="42"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="44"/>
     </row>
     <row r="290" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="70"/>
+      <c r="A290" s="87"/>
       <c r="B290" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="53"/>
-      <c r="E290" s="56"/>
-      <c r="F290" s="55"/>
+      <c r="C290" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D290" s="42"/>
+      <c r="E290" s="43"/>
+      <c r="F290" s="44"/>
     </row>
     <row r="291" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="70"/>
+      <c r="A291" s="87"/>
       <c r="B291" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="53"/>
-      <c r="E291" s="56"/>
-      <c r="F291" s="55"/>
+      <c r="C291" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D291" s="42"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="44"/>
     </row>
     <row r="292" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="70"/>
+      <c r="A292" s="87"/>
       <c r="B292" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D292" s="53"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="55"/>
+        <v>411</v>
+      </c>
+      <c r="D292" s="42"/>
+      <c r="E292" s="43"/>
+      <c r="F292" s="44"/>
     </row>
     <row r="293" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="70"/>
+      <c r="A293" s="87"/>
       <c r="B293" s="9" t="s">
         <v>259</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D293" s="53"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="55"/>
+        <v>412</v>
+      </c>
+      <c r="D293" s="42"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="44"/>
     </row>
     <row r="294" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="70"/>
+      <c r="A294" s="87"/>
       <c r="B294" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D294" s="53"/>
-      <c r="E294" s="56"/>
-      <c r="F294" s="55"/>
+        <v>297</v>
+      </c>
+      <c r="D294" s="42"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="44"/>
     </row>
     <row r="295" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="70"/>
+      <c r="A295" s="87"/>
       <c r="B295" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="53"/>
-      <c r="E295" s="56"/>
-      <c r="F295" s="55"/>
+      <c r="C295" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D295" s="42"/>
+      <c r="E295" s="43"/>
+      <c r="F295" s="44"/>
     </row>
     <row r="296" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="70"/>
+      <c r="A296" s="87"/>
       <c r="B296" s="9" t="s">
         <v>262</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D296" s="53"/>
-      <c r="E296" s="56"/>
-      <c r="F296" s="55"/>
+        <v>285</v>
+      </c>
+      <c r="D296" s="45"/>
+      <c r="E296" s="46"/>
+      <c r="F296" s="47"/>
     </row>
     <row r="297" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="70"/>
-      <c r="B297" s="9" t="s">
+      <c r="A297" s="74"/>
+      <c r="B297" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="D297" s="79"/>
+      <c r="E297" s="79"/>
+      <c r="F297" s="80"/>
+    </row>
+    <row r="298" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="81"/>
+      <c r="B298" s="82"/>
+      <c r="C298" s="82"/>
+      <c r="D298" s="82"/>
+      <c r="E298" s="82"/>
+      <c r="F298" s="83"/>
+    </row>
+    <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E299" s="49"/>
+      <c r="F299" s="50"/>
+    </row>
+    <row r="300" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="C297" s="9"/>
-      <c r="D297" s="57"/>
-      <c r="E297" s="58"/>
-      <c r="F297" s="59"/>
-    </row>
-    <row r="298" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="71"/>
-      <c r="B298" s="11" t="s">
+      <c r="B300" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C300" s="26"/>
+      <c r="D300" s="51"/>
+      <c r="E300" s="52"/>
+      <c r="F300" s="53"/>
+    </row>
+    <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="74"/>
+      <c r="B301" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C298" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="D298" s="44"/>
-      <c r="E298" s="44"/>
-      <c r="F298" s="45"/>
-    </row>
-    <row r="299" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A299" s="29"/>
-      <c r="B299" s="30"/>
-      <c r="C299" s="30"/>
-      <c r="D299" s="30"/>
-      <c r="E299" s="30"/>
-      <c r="F299" s="31"/>
-    </row>
-    <row r="300" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="7" t="s">
+      <c r="C301" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="D301" s="85"/>
+      <c r="E301" s="85"/>
+      <c r="F301" s="86"/>
+    </row>
+    <row r="302" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="81"/>
+      <c r="B302" s="82"/>
+      <c r="C302" s="82"/>
+      <c r="D302" s="82"/>
+      <c r="E302" s="82"/>
+      <c r="F302" s="83"/>
+    </row>
+    <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B303" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C300" s="8" t="s">
+      <c r="C303" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D300" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E300" s="95"/>
-      <c r="F300" s="96"/>
-    </row>
-    <row r="301" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="B301" s="9" t="s">
+      <c r="D303" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="C301" s="26"/>
-      <c r="D301" s="97"/>
-      <c r="E301" s="98"/>
-      <c r="F301" s="99"/>
-    </row>
-    <row r="302" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="71"/>
-      <c r="B302" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C302" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="D302" s="65"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="66"/>
-    </row>
-    <row r="303" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="29"/>
-      <c r="B303" s="30"/>
-      <c r="C303" s="30"/>
-      <c r="D303" s="30"/>
-      <c r="E303" s="30"/>
-      <c r="F303" s="31"/>
+      <c r="E303" s="55"/>
+      <c r="F303" s="56"/>
     </row>
     <row r="304" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A304" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C304" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D304" s="100" t="s">
+      <c r="A304" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="E304" s="101"/>
-      <c r="F304" s="102"/>
+      <c r="B304" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C304" s="9"/>
+      <c r="D304" s="57"/>
+      <c r="E304" s="58"/>
+      <c r="F304" s="59"/>
     </row>
     <row r="305" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A305" s="67" t="s">
-        <v>267</v>
-      </c>
+      <c r="A305" s="69"/>
       <c r="B305" s="9" t="s">
         <v>268</v>
       </c>
       <c r="C305" s="9"/>
-      <c r="D305" s="103"/>
-      <c r="E305" s="104"/>
-      <c r="F305" s="105"/>
+      <c r="D305" s="57"/>
+      <c r="E305" s="58"/>
+      <c r="F305" s="59"/>
     </row>
     <row r="306" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A306" s="68"/>
+      <c r="A306" s="69"/>
       <c r="B306" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C306" s="9"/>
-      <c r="D306" s="103"/>
-      <c r="E306" s="104"/>
-      <c r="F306" s="105"/>
+      <c r="D306" s="57"/>
+      <c r="E306" s="58"/>
+      <c r="F306" s="59"/>
     </row>
     <row r="307" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="68"/>
+      <c r="A307" s="69"/>
       <c r="B307" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C307" s="9"/>
-      <c r="D307" s="103"/>
-      <c r="E307" s="104"/>
-      <c r="F307" s="105"/>
+      <c r="D307" s="57"/>
+      <c r="E307" s="58"/>
+      <c r="F307" s="59"/>
     </row>
     <row r="308" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A308" s="68"/>
+      <c r="A308" s="69"/>
       <c r="B308" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="103"/>
-      <c r="E308" s="104"/>
-      <c r="F308" s="105"/>
+      <c r="C308" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D308" s="57"/>
+      <c r="E308" s="58"/>
+      <c r="F308" s="59"/>
     </row>
     <row r="309" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A309" s="68"/>
+      <c r="A309" s="69"/>
       <c r="B309" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C309" s="9"/>
-      <c r="D309" s="103"/>
-      <c r="E309" s="104"/>
-      <c r="F309" s="105"/>
+      <c r="C309" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D309" s="57"/>
+      <c r="E309" s="58"/>
+      <c r="F309" s="59"/>
     </row>
     <row r="310" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A310" s="68"/>
+      <c r="A310" s="69"/>
       <c r="B310" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D310" s="103"/>
-      <c r="E310" s="104"/>
-      <c r="F310" s="105"/>
+        <v>293</v>
+      </c>
+      <c r="D310" s="57"/>
+      <c r="E310" s="58"/>
+      <c r="F310" s="59"/>
     </row>
     <row r="311" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A311" s="68"/>
+      <c r="A311" s="69"/>
       <c r="B311" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C311" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D311" s="103"/>
-      <c r="E311" s="104"/>
-      <c r="F311" s="105"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="57"/>
+      <c r="E311" s="58"/>
+      <c r="F311" s="59"/>
     </row>
     <row r="312" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A312" s="68"/>
+      <c r="A312" s="69"/>
       <c r="B312" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C312" s="9"/>
-      <c r="D312" s="103"/>
-      <c r="E312" s="104"/>
-      <c r="F312" s="105"/>
+      <c r="C312" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D312" s="57"/>
+      <c r="E312" s="58"/>
+      <c r="F312" s="59"/>
     </row>
     <row r="313" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A313" s="68"/>
-      <c r="B313" s="9" t="s">
+      <c r="A313" s="70"/>
+      <c r="B313" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C313" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="D313" s="79"/>
+      <c r="E313" s="79"/>
+      <c r="F313" s="80"/>
+    </row>
+    <row r="314" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="81"/>
+      <c r="B314" s="82"/>
+      <c r="C314" s="82"/>
+      <c r="D314" s="82"/>
+      <c r="E314" s="82"/>
+      <c r="F314" s="83"/>
+    </row>
+    <row r="315" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E315" s="49"/>
+      <c r="F315" s="50"/>
+    </row>
+    <row r="316" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C313" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D313" s="103"/>
-      <c r="E313" s="104"/>
-      <c r="F313" s="105"/>
-    </row>
-    <row r="314" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A314" s="69"/>
-      <c r="B314" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C314" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="D314" s="44"/>
-      <c r="E314" s="44"/>
-      <c r="F314" s="45"/>
-    </row>
-    <row r="315" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A315" s="29"/>
-      <c r="B315" s="30"/>
-      <c r="C315" s="30"/>
-      <c r="D315" s="30"/>
-      <c r="E315" s="30"/>
-      <c r="F315" s="31"/>
-    </row>
-    <row r="316" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A316" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D316" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E316" s="95"/>
-      <c r="F316" s="96"/>
+      <c r="B316" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C316" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D316" s="51"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="53"/>
     </row>
     <row r="317" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A317" s="79" t="s">
-        <v>277</v>
-      </c>
+      <c r="A317" s="28"/>
       <c r="B317" s="15" t="s">
         <v>278</v>
       </c>
       <c r="C317" s="15"/>
-      <c r="D317" s="97"/>
-      <c r="E317" s="98"/>
-      <c r="F317" s="99"/>
+      <c r="D317" s="51"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="80"/>
+      <c r="A318" s="28"/>
       <c r="B318" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C318" s="15"/>
-      <c r="D318" s="97"/>
-      <c r="E318" s="98"/>
-      <c r="F318" s="99"/>
+      <c r="C318" s="26"/>
+      <c r="D318" s="51"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="53"/>
     </row>
     <row r="319" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A319" s="80"/>
-      <c r="B319" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C319" s="26"/>
-      <c r="D319" s="97"/>
-      <c r="E319" s="98"/>
-      <c r="F319" s="99"/>
-    </row>
-    <row r="320" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A320" s="81"/>
-      <c r="B320" s="17" t="s">
+      <c r="A319" s="29"/>
+      <c r="B319" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C320" s="72" t="s">
-        <v>310</v>
-      </c>
-      <c r="D320" s="73"/>
-      <c r="E320" s="73"/>
-      <c r="F320" s="74"/>
+      <c r="C319" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="D319" s="61"/>
+      <c r="E319" s="61"/>
+      <c r="F319" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A317:A320"/>
-    <mergeCell ref="D52:F57"/>
-    <mergeCell ref="D47:F50"/>
-    <mergeCell ref="D59:F63"/>
-    <mergeCell ref="D36:F39"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="D4:F20"/>
-    <mergeCell ref="D23:F25"/>
-    <mergeCell ref="D27:F29"/>
-    <mergeCell ref="D31:F34"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D66:F69"/>
-    <mergeCell ref="D72:F87"/>
-    <mergeCell ref="D124:F138"/>
-    <mergeCell ref="D118:F121"/>
-    <mergeCell ref="D108:F115"/>
-    <mergeCell ref="D90:F105"/>
-    <mergeCell ref="D141:F147"/>
-    <mergeCell ref="D150:F199"/>
-    <mergeCell ref="D316:F319"/>
-    <mergeCell ref="D300:F301"/>
-    <mergeCell ref="D274:F276"/>
-    <mergeCell ref="D258:F259"/>
-    <mergeCell ref="D304:F313"/>
-    <mergeCell ref="C320:F320"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="A256:F256"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="D207:F209"/>
+    <mergeCell ref="D228:F230"/>
+    <mergeCell ref="D211:F225"/>
+    <mergeCell ref="D232:F254"/>
+    <mergeCell ref="D201:F205"/>
+    <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A272:F272"/>
+    <mergeCell ref="C276:F276"/>
+    <mergeCell ref="C297:F297"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="C301:F301"/>
+    <mergeCell ref="A302:F302"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A262:A271"/>
+    <mergeCell ref="A274:A276"/>
+    <mergeCell ref="A279:A297"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="A304:A313"/>
+    <mergeCell ref="D278:F296"/>
+    <mergeCell ref="D261:F271"/>
+    <mergeCell ref="C319:F319"/>
     <mergeCell ref="A5:A21"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A28:A29"/>
@@ -6009,72 +6233,39 @@
     <mergeCell ref="A91:A106"/>
     <mergeCell ref="A109:A116"/>
     <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A125:A139"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A151:A200"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A213:A227"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A234:A256"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A261:F261"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="C277:F277"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="A299:F299"/>
-    <mergeCell ref="C302:F302"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="C314:F314"/>
-    <mergeCell ref="A315:F315"/>
-    <mergeCell ref="A263:A272"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="A280:A298"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="A305:A314"/>
-    <mergeCell ref="D279:F297"/>
-    <mergeCell ref="D262:F272"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A211:F211"/>
-    <mergeCell ref="C227:F227"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A232:F232"/>
-    <mergeCell ref="C256:F256"/>
-    <mergeCell ref="A257:F257"/>
-    <mergeCell ref="C260:F260"/>
-    <mergeCell ref="D208:F210"/>
-    <mergeCell ref="D229:F231"/>
-    <mergeCell ref="D212:F226"/>
-    <mergeCell ref="D233:F255"/>
-    <mergeCell ref="D202:F206"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="C200:F200"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A125:A138"/>
+    <mergeCell ref="A141:A147"/>
+    <mergeCell ref="A150:A199"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A212:A226"/>
+    <mergeCell ref="A229:A230"/>
+    <mergeCell ref="A233:A255"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="A316:A319"/>
+    <mergeCell ref="D52:F57"/>
+    <mergeCell ref="D47:F50"/>
+    <mergeCell ref="D59:F63"/>
+    <mergeCell ref="D36:F39"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="D4:F20"/>
+    <mergeCell ref="D23:F25"/>
+    <mergeCell ref="D27:F29"/>
+    <mergeCell ref="D31:F34"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D66:F69"/>
+    <mergeCell ref="D72:F87"/>
+    <mergeCell ref="D124:F137"/>
+    <mergeCell ref="D118:F121"/>
+    <mergeCell ref="D108:F115"/>
+    <mergeCell ref="D90:F105"/>
+    <mergeCell ref="D140:F146"/>
+    <mergeCell ref="D149:F198"/>
+    <mergeCell ref="D315:F318"/>
+    <mergeCell ref="D299:F300"/>
+    <mergeCell ref="D273:F275"/>
+    <mergeCell ref="D257:F258"/>
+    <mergeCell ref="D303:F312"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.78680555555555598" header="0.5" footer="0.5"/>
